--- a/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8325324222166282</v>
+        <v>0.8325324222166283</v>
       </c>
       <c r="D2">
-        <v>0.9971765213662469</v>
+        <v>0.997176521366247</v>
       </c>
       <c r="E2">
-        <v>0.8610166955153615</v>
+        <v>0.861016695515362</v>
       </c>
       <c r="F2">
-        <v>0.8785944388512706</v>
+        <v>0.878594438851271</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,10 +442,10 @@
         <v>0.8612082329870911</v>
       </c>
       <c r="K2">
-        <v>1.008675332390369</v>
+        <v>1.00867533239037</v>
       </c>
       <c r="L2">
-        <v>0.8748245436362549</v>
+        <v>0.8748245436362554</v>
       </c>
       <c r="M2">
         <v>0.8920514491988584</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8664052498429246</v>
+        <v>0.8664052498429218</v>
       </c>
       <c r="D3">
         <v>1.005758493155859</v>
       </c>
       <c r="E3">
-        <v>0.8902455812134831</v>
+        <v>0.8902455812134806</v>
       </c>
       <c r="F3">
-        <v>0.9065200295023257</v>
+        <v>0.9065200295023234</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038934516028968</v>
+        <v>1.038934516028967</v>
       </c>
       <c r="J3">
-        <v>0.8913437427633987</v>
+        <v>0.8913437427633961</v>
       </c>
       <c r="K3">
-        <v>1.016318219423722</v>
+        <v>1.016318219423721</v>
       </c>
       <c r="L3">
-        <v>0.9025063191941707</v>
+        <v>0.9025063191941682</v>
       </c>
       <c r="M3">
-        <v>0.9185073949253995</v>
+        <v>0.9185073949253973</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,19 +494,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>0.8852131129945968</v>
+        <v>0.8852131129945987</v>
       </c>
       <c r="D4">
-        <v>1.010686372939137</v>
+        <v>1.010686372939136</v>
       </c>
       <c r="E4">
-        <v>0.906519267065794</v>
+        <v>0.9065192670657954</v>
       </c>
       <c r="F4">
-        <v>0.9221426408645518</v>
+        <v>0.9221426408645529</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041102230693253</v>
       </c>
       <c r="J4">
-        <v>0.9080907995558246</v>
+        <v>0.9080907995558263</v>
       </c>
       <c r="K4">
         <v>1.020657511350039</v>
       </c>
       <c r="L4">
-        <v>0.9178942402318615</v>
+        <v>0.9178942402318629</v>
       </c>
       <c r="M4">
-        <v>0.9332813890468133</v>
+        <v>0.9332813890468147</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8925705163674705</v>
+        <v>0.8925705163674739</v>
       </c>
       <c r="D5">
-        <v>1.012642980809792</v>
+        <v>1.012642980809793</v>
       </c>
       <c r="E5">
-        <v>0.9128924240371361</v>
+        <v>0.9128924240371394</v>
       </c>
       <c r="F5">
-        <v>0.9282731394852396</v>
+        <v>0.9282731394852423</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.04195360015716</v>
       </c>
       <c r="J5">
-        <v>0.914643308064751</v>
+        <v>0.9146433080647541</v>
       </c>
       <c r="K5">
-        <v>1.02237033874389</v>
+        <v>1.022370338743891</v>
       </c>
       <c r="L5">
-        <v>0.9239152026314619</v>
+        <v>0.9239152026314649</v>
       </c>
       <c r="M5">
-        <v>0.9390732354895864</v>
+        <v>0.9390732354895889</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8937776241557657</v>
+        <v>0.8937776241557686</v>
       </c>
       <c r="D6">
-        <v>1.012965472345564</v>
+        <v>1.012965472345565</v>
       </c>
       <c r="E6">
-        <v>0.9139383933271075</v>
+        <v>0.9139383933271097</v>
       </c>
       <c r="F6">
-        <v>0.9292798891218125</v>
+        <v>0.9292798891218147</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04209339375095</v>
+        <v>1.042093393750951</v>
       </c>
       <c r="J6">
-        <v>0.9157183885477044</v>
+        <v>0.9157183885477069</v>
       </c>
       <c r="K6">
-        <v>1.022652093513874</v>
+        <v>1.022652093513875</v>
       </c>
       <c r="L6">
-        <v>0.9249030681164925</v>
+        <v>0.9249030681164947</v>
       </c>
       <c r="M6">
-        <v>0.9400240533931054</v>
+        <v>0.9400240533931075</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8853133928645381</v>
+        <v>0.8853133928645409</v>
       </c>
       <c r="D7">
-        <v>1.010712935477687</v>
+        <v>1.010712935477688</v>
       </c>
       <c r="E7">
-        <v>0.9066061068483708</v>
+        <v>0.9066061068483732</v>
       </c>
       <c r="F7">
-        <v>0.9222261303576145</v>
+        <v>0.9222261303576169</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041113825220156</v>
+        <v>1.041113825220157</v>
       </c>
       <c r="J7">
-        <v>0.9081801059509798</v>
+        <v>0.9081801059509824</v>
       </c>
       <c r="K7">
         <v>1.02068080301885</v>
       </c>
       <c r="L7">
-        <v>0.9179763018891492</v>
+        <v>0.9179763018891519</v>
       </c>
       <c r="M7">
-        <v>0.9333602885698268</v>
+        <v>0.9333602885698289</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8447803278949213</v>
+        <v>0.8447803278949207</v>
       </c>
       <c r="D8">
         <v>1.000233790227407</v>
       </c>
       <c r="E8">
-        <v>0.871572122273288</v>
+        <v>0.8715721222732873</v>
       </c>
       <c r="F8">
-        <v>0.8886573720563774</v>
+        <v>0.8886573720563768</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.036466836291744</v>
       </c>
       <c r="J8">
-        <v>0.8720995715138751</v>
+        <v>0.8720995715138747</v>
       </c>
       <c r="K8">
         <v>1.011410595606697</v>
       </c>
       <c r="L8">
-        <v>0.8848273006255774</v>
+        <v>0.884827300625577</v>
       </c>
       <c r="M8">
-        <v>0.9015914401829426</v>
+        <v>0.9015914401829421</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D9">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E9">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F9">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J9">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K9">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L9">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M9">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D10">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E10">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F10">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J10">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K10">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L10">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M10">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D11">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E11">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F11">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J11">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K11">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L11">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M11">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D12">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E12">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F12">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J12">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K12">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L12">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M12">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D13">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E13">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F13">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J13">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K13">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L13">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M13">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D14">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E14">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F14">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J14">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K14">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L14">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M14">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D15">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E15">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F15">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J15">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K15">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L15">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M15">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D16">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E16">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F16">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J16">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K16">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L16">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M16">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D17">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E17">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F17">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J17">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K17">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L17">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M17">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D18">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E18">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F18">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J18">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K18">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L18">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M18">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D19">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E19">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F19">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J19">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K19">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L19">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M19">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D20">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E20">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F20">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J20">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K20">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L20">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M20">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D21">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E21">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F21">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J21">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K21">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L21">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M21">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D22">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E22">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F22">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J22">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K22">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L22">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M22">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D23">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E23">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F23">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J23">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K23">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L23">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M23">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D24">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E24">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F24">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J24">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K24">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L24">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M24">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7220742033363682</v>
+        <v>0.7220742033363641</v>
       </c>
       <c r="D25">
-        <v>0.9722846533336421</v>
+        <v>0.9722846533336417</v>
       </c>
       <c r="E25">
-        <v>0.7667976908560958</v>
+        <v>0.7667976908560923</v>
       </c>
       <c r="F25">
-        <v>0.7902133401524811</v>
+        <v>0.7902133401524786</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J25">
-        <v>0.7635030413988569</v>
+        <v>0.7635030413988532</v>
       </c>
       <c r="K25">
-        <v>0.9858439892861823</v>
+        <v>0.9858439892861821</v>
       </c>
       <c r="L25">
-        <v>0.7852893213487413</v>
+        <v>0.7852893213487377</v>
       </c>
       <c r="M25">
-        <v>0.8079639343328904</v>
+        <v>0.8079639343328876</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8325324222166283</v>
+        <v>0.8325324222166282</v>
       </c>
       <c r="D2">
-        <v>0.997176521366247</v>
+        <v>0.9971765213662469</v>
       </c>
       <c r="E2">
-        <v>0.861016695515362</v>
+        <v>0.8610166955153615</v>
       </c>
       <c r="F2">
-        <v>0.878594438851271</v>
+        <v>0.8785944388512706</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,10 +442,10 @@
         <v>0.8612082329870911</v>
       </c>
       <c r="K2">
-        <v>1.00867533239037</v>
+        <v>1.008675332390369</v>
       </c>
       <c r="L2">
-        <v>0.8748245436362554</v>
+        <v>0.8748245436362549</v>
       </c>
       <c r="M2">
         <v>0.8920514491988584</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8664052498429218</v>
+        <v>0.8664052498429246</v>
       </c>
       <c r="D3">
         <v>1.005758493155859</v>
       </c>
       <c r="E3">
-        <v>0.8902455812134806</v>
+        <v>0.8902455812134831</v>
       </c>
       <c r="F3">
-        <v>0.9065200295023234</v>
+        <v>0.9065200295023257</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038934516028967</v>
+        <v>1.038934516028968</v>
       </c>
       <c r="J3">
-        <v>0.8913437427633961</v>
+        <v>0.8913437427633987</v>
       </c>
       <c r="K3">
-        <v>1.016318219423721</v>
+        <v>1.016318219423722</v>
       </c>
       <c r="L3">
-        <v>0.9025063191941682</v>
+        <v>0.9025063191941707</v>
       </c>
       <c r="M3">
-        <v>0.9185073949253973</v>
+        <v>0.9185073949253995</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,19 +494,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8852131129945987</v>
+        <v>0.8852131129945968</v>
       </c>
       <c r="D4">
-        <v>1.010686372939136</v>
+        <v>1.010686372939137</v>
       </c>
       <c r="E4">
-        <v>0.9065192670657954</v>
+        <v>0.906519267065794</v>
       </c>
       <c r="F4">
-        <v>0.9221426408645529</v>
+        <v>0.9221426408645518</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041102230693253</v>
       </c>
       <c r="J4">
-        <v>0.9080907995558263</v>
+        <v>0.9080907995558246</v>
       </c>
       <c r="K4">
         <v>1.020657511350039</v>
       </c>
       <c r="L4">
-        <v>0.9178942402318629</v>
+        <v>0.9178942402318615</v>
       </c>
       <c r="M4">
-        <v>0.9332813890468147</v>
+        <v>0.9332813890468133</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8925705163674739</v>
+        <v>0.8925705163674705</v>
       </c>
       <c r="D5">
-        <v>1.012642980809793</v>
+        <v>1.012642980809792</v>
       </c>
       <c r="E5">
-        <v>0.9128924240371394</v>
+        <v>0.9128924240371361</v>
       </c>
       <c r="F5">
-        <v>0.9282731394852423</v>
+        <v>0.9282731394852396</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.04195360015716</v>
       </c>
       <c r="J5">
-        <v>0.9146433080647541</v>
+        <v>0.914643308064751</v>
       </c>
       <c r="K5">
-        <v>1.022370338743891</v>
+        <v>1.02237033874389</v>
       </c>
       <c r="L5">
-        <v>0.9239152026314649</v>
+        <v>0.9239152026314619</v>
       </c>
       <c r="M5">
-        <v>0.9390732354895889</v>
+        <v>0.9390732354895864</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8937776241557686</v>
+        <v>0.8937776241557657</v>
       </c>
       <c r="D6">
-        <v>1.012965472345565</v>
+        <v>1.012965472345564</v>
       </c>
       <c r="E6">
-        <v>0.9139383933271097</v>
+        <v>0.9139383933271075</v>
       </c>
       <c r="F6">
-        <v>0.9292798891218147</v>
+        <v>0.9292798891218125</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042093393750951</v>
+        <v>1.04209339375095</v>
       </c>
       <c r="J6">
-        <v>0.9157183885477069</v>
+        <v>0.9157183885477044</v>
       </c>
       <c r="K6">
-        <v>1.022652093513875</v>
+        <v>1.022652093513874</v>
       </c>
       <c r="L6">
-        <v>0.9249030681164947</v>
+        <v>0.9249030681164925</v>
       </c>
       <c r="M6">
-        <v>0.9400240533931075</v>
+        <v>0.9400240533931054</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8853133928645409</v>
+        <v>0.8853133928645381</v>
       </c>
       <c r="D7">
-        <v>1.010712935477688</v>
+        <v>1.010712935477687</v>
       </c>
       <c r="E7">
-        <v>0.9066061068483732</v>
+        <v>0.9066061068483708</v>
       </c>
       <c r="F7">
-        <v>0.9222261303576169</v>
+        <v>0.9222261303576145</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041113825220157</v>
+        <v>1.041113825220156</v>
       </c>
       <c r="J7">
-        <v>0.9081801059509824</v>
+        <v>0.9081801059509798</v>
       </c>
       <c r="K7">
         <v>1.02068080301885</v>
       </c>
       <c r="L7">
-        <v>0.9179763018891519</v>
+        <v>0.9179763018891492</v>
       </c>
       <c r="M7">
-        <v>0.9333602885698289</v>
+        <v>0.9333602885698268</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8447803278949207</v>
+        <v>0.8447803278949213</v>
       </c>
       <c r="D8">
         <v>1.000233790227407</v>
       </c>
       <c r="E8">
-        <v>0.8715721222732873</v>
+        <v>0.871572122273288</v>
       </c>
       <c r="F8">
-        <v>0.8886573720563768</v>
+        <v>0.8886573720563774</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.036466836291744</v>
       </c>
       <c r="J8">
-        <v>0.8720995715138747</v>
+        <v>0.8720995715138751</v>
       </c>
       <c r="K8">
         <v>1.011410595606697</v>
       </c>
       <c r="L8">
-        <v>0.884827300625577</v>
+        <v>0.8848273006255774</v>
       </c>
       <c r="M8">
-        <v>0.9015914401829421</v>
+        <v>0.9015914401829426</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D9">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E9">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F9">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J9">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K9">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L9">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M9">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D10">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E10">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F10">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J10">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K10">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L10">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M10">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D11">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E11">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F11">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J11">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K11">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L11">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M11">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D12">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E12">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F12">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J12">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K12">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L12">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M12">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D13">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E13">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F13">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J13">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K13">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L13">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M13">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D14">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E14">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F14">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J14">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K14">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L14">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M14">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D15">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E15">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F15">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J15">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K15">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L15">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M15">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D16">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E16">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F16">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J16">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K16">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L16">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M16">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D17">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E17">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F17">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J17">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K17">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L17">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M17">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D18">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E18">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F18">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J18">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K18">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L18">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M18">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D19">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E19">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F19">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J19">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K19">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L19">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M19">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D20">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E20">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F20">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J20">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K20">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L20">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M20">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D21">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E21">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F21">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J21">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K21">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L21">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M21">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D22">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E22">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F22">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J22">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K22">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L22">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M22">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D23">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E23">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F23">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J23">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K23">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L23">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M23">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D24">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E24">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F24">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J24">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K24">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L24">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M24">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7220742033363641</v>
+        <v>0.7220742033363682</v>
       </c>
       <c r="D25">
-        <v>0.9722846533336417</v>
+        <v>0.9722846533336421</v>
       </c>
       <c r="E25">
-        <v>0.7667976908560923</v>
+        <v>0.7667976908560958</v>
       </c>
       <c r="F25">
-        <v>0.7902133401524786</v>
+        <v>0.7902133401524811</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.023439324800406</v>
       </c>
       <c r="J25">
-        <v>0.7635030413988532</v>
+        <v>0.7635030413988569</v>
       </c>
       <c r="K25">
-        <v>0.9858439892861821</v>
+        <v>0.9858439892861823</v>
       </c>
       <c r="L25">
-        <v>0.7852893213487377</v>
+        <v>0.7852893213487413</v>
       </c>
       <c r="M25">
-        <v>0.8079639343328876</v>
+        <v>0.8079639343328904</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8325324222166282</v>
+        <v>0.8397017161086699</v>
       </c>
       <c r="D2">
-        <v>0.9971765213662469</v>
+        <v>0.9982966792694168</v>
       </c>
       <c r="E2">
-        <v>0.8610166955153615</v>
+        <v>0.8670905479095394</v>
       </c>
       <c r="F2">
-        <v>0.8785944388512706</v>
+        <v>0.8837328898548823</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03508524923397</v>
+        <v>1.0356534361767</v>
       </c>
       <c r="J2">
-        <v>0.8612082329870911</v>
+        <v>0.8680221647193888</v>
       </c>
       <c r="K2">
-        <v>1.008675332390369</v>
+        <v>1.00977979517286</v>
       </c>
       <c r="L2">
-        <v>0.8748245436362549</v>
+        <v>0.8807750496436487</v>
       </c>
       <c r="M2">
-        <v>0.8920514491988584</v>
+        <v>0.8970907907157596</v>
+      </c>
+      <c r="N2">
+        <v>0.8692548557568243</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8664052498429246</v>
+        <v>0.8730315911484526</v>
       </c>
       <c r="D3">
-        <v>1.005758493155859</v>
+        <v>1.006782296140047</v>
       </c>
       <c r="E3">
-        <v>0.8902455812134831</v>
+        <v>0.8958706463809254</v>
       </c>
       <c r="F3">
-        <v>0.9065200295023257</v>
+        <v>0.9112444078199082</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038934516028968</v>
+        <v>1.039454513226704</v>
       </c>
       <c r="J3">
-        <v>0.8913437427633987</v>
+        <v>0.897703806386107</v>
       </c>
       <c r="K3">
-        <v>1.016318219423722</v>
+        <v>1.017329125553185</v>
       </c>
       <c r="L3">
-        <v>0.9025063191941707</v>
+        <v>0.9080354471169843</v>
       </c>
       <c r="M3">
-        <v>0.9185073949253995</v>
+        <v>0.9231547629320691</v>
+      </c>
+      <c r="N3">
+        <v>0.8989786487592411</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8852131129945968</v>
+        <v>0.8916149767047294</v>
       </c>
       <c r="D4">
-        <v>1.010686372939137</v>
+        <v>1.011669420772699</v>
       </c>
       <c r="E4">
-        <v>0.906519267065794</v>
+        <v>0.9119587674230264</v>
       </c>
       <c r="F4">
-        <v>0.9221426408645518</v>
+        <v>0.9266938314517627</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041102230693253</v>
+        <v>1.041601939820865</v>
       </c>
       <c r="J4">
-        <v>0.9080907995558246</v>
+        <v>0.9142658623133084</v>
       </c>
       <c r="K4">
-        <v>1.020657511350039</v>
+        <v>1.021629017155037</v>
       </c>
       <c r="L4">
-        <v>0.9178942402318615</v>
+        <v>0.9232503247125972</v>
       </c>
       <c r="M4">
-        <v>0.9332813890468133</v>
+        <v>0.9377656669839074</v>
+      </c>
+      <c r="N4">
+        <v>0.9155642247055533</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8925705163674705</v>
+        <v>0.8988962058369622</v>
       </c>
       <c r="D5">
-        <v>1.012642980809792</v>
+        <v>1.013612031377569</v>
       </c>
       <c r="E5">
-        <v>0.9128924240371361</v>
+        <v>0.9182689780373493</v>
       </c>
       <c r="F5">
-        <v>0.9282731394852396</v>
+        <v>0.9327651970320442</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04195360015716</v>
+        <v>1.042446362567708</v>
       </c>
       <c r="J5">
-        <v>0.914643308064751</v>
+        <v>0.9207561548355552</v>
       </c>
       <c r="K5">
-        <v>1.02237033874389</v>
+        <v>1.023328348989077</v>
       </c>
       <c r="L5">
-        <v>0.9239152026314619</v>
+        <v>0.9292128390155655</v>
       </c>
       <c r="M5">
-        <v>0.9390732354895864</v>
+        <v>0.9435020068265209</v>
+      </c>
+      <c r="N5">
+        <v>0.9220637341876289</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8937776241557657</v>
+        <v>0.9000913789721695</v>
       </c>
       <c r="D6">
-        <v>1.012965472345564</v>
+        <v>1.013932321082128</v>
       </c>
       <c r="E6">
-        <v>0.9139383933271075</v>
+        <v>0.9193050871424557</v>
       </c>
       <c r="F6">
-        <v>0.9292798891218125</v>
+        <v>0.9337626627613791</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04209339375095</v>
+        <v>1.042585064647295</v>
       </c>
       <c r="J6">
-        <v>0.9157183885477044</v>
+        <v>0.9218215195866593</v>
       </c>
       <c r="K6">
-        <v>1.022652093513874</v>
+        <v>1.023607982919125</v>
       </c>
       <c r="L6">
-        <v>0.9249030681164925</v>
+        <v>0.9301915632041778</v>
       </c>
       <c r="M6">
-        <v>0.9400240533931054</v>
+        <v>0.944444120291432</v>
+      </c>
+      <c r="N6">
+        <v>0.9231306118788786</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8853133928645381</v>
+        <v>0.8917141774562011</v>
       </c>
       <c r="D7">
-        <v>1.010712935477687</v>
+        <v>1.011695785671222</v>
       </c>
       <c r="E7">
-        <v>0.9066061068483708</v>
+        <v>0.9120447153511108</v>
       </c>
       <c r="F7">
-        <v>0.9222261303576145</v>
+        <v>0.9267764846581159</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041113825220156</v>
+        <v>1.041613436172746</v>
       </c>
       <c r="J7">
-        <v>0.9081801059509798</v>
+        <v>0.914354285020208</v>
       </c>
       <c r="K7">
-        <v>1.02068080301885</v>
+        <v>1.021652118119023</v>
       </c>
       <c r="L7">
-        <v>0.9179763018891492</v>
+        <v>0.9233315572197047</v>
       </c>
       <c r="M7">
-        <v>0.9333602885698268</v>
+        <v>0.9378437807774954</v>
+      </c>
+      <c r="N7">
+        <v>0.9156527729828391</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8447803278949213</v>
+        <v>0.8517289407455986</v>
       </c>
       <c r="D8">
-        <v>1.000233790227407</v>
+        <v>1.001315094588579</v>
       </c>
       <c r="E8">
-        <v>0.871572122273288</v>
+        <v>0.8774636024317445</v>
       </c>
       <c r="F8">
-        <v>0.8886573720563774</v>
+        <v>0.8936282000014056</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036466836291744</v>
+        <v>1.037015563899842</v>
       </c>
       <c r="J8">
-        <v>0.8720995715138751</v>
+        <v>0.8787282204624985</v>
       </c>
       <c r="K8">
-        <v>1.011410595606697</v>
+        <v>1.01247728150208</v>
       </c>
       <c r="L8">
-        <v>0.8848273006255774</v>
+        <v>0.8906062063027291</v>
       </c>
       <c r="M8">
-        <v>0.9015914401829426</v>
+        <v>0.9064718412209483</v>
+      </c>
+      <c r="N8">
+        <v>0.8799761153270911</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D9">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E9">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F9">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J9">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K9">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L9">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M9">
-        <v>0.8079639343328904</v>
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N9">
+        <v>0.77579400002514</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D10">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E10">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F10">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J10">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K10">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L10">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M10">
-        <v>0.8079639343328904</v>
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N10">
+        <v>0.77579400002514</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D11">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E11">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F11">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J11">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K11">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L11">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M11">
-        <v>0.8079639343328904</v>
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N11">
+        <v>0.77579400002514</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D12">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E12">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F12">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J12">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K12">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L12">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M12">
-        <v>0.8079639343328904</v>
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N12">
+        <v>0.77579400002514</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D13">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E13">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F13">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J13">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K13">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L13">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M13">
-        <v>0.8079639343328904</v>
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N13">
+        <v>0.77579400002514</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D14">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E14">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F14">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J14">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K14">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L14">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M14">
-        <v>0.8079639343328904</v>
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N14">
+        <v>0.77579400002514</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D15">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E15">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F15">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J15">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K15">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L15">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M15">
-        <v>0.8079639343328904</v>
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N15">
+        <v>0.77579400002514</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D16">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E16">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F16">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J16">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K16">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L16">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M16">
-        <v>0.8079639343328904</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N16">
+        <v>0.77579400002514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D17">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E17">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F17">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J17">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K17">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L17">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M17">
-        <v>0.8079639343328904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N17">
+        <v>0.77579400002514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D18">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E18">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F18">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J18">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K18">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L18">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M18">
-        <v>0.8079639343328904</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N18">
+        <v>0.77579400002514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D19">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E19">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F19">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J19">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K19">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L19">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M19">
-        <v>0.8079639343328904</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N19">
+        <v>0.77579400002514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D20">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E20">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F20">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J20">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K20">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L20">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M20">
-        <v>0.8079639343328904</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N20">
+        <v>0.77579400002514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D21">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E21">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F21">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J21">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K21">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L21">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M21">
-        <v>0.8079639343328904</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N21">
+        <v>0.77579400002514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D22">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E22">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F22">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J22">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K22">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L22">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M22">
-        <v>0.8079639343328904</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N22">
+        <v>0.77579400002514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D23">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E23">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F23">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J23">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K23">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L23">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M23">
-        <v>0.8079639343328904</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N23">
+        <v>0.77579400002514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D24">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E24">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F24">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J24">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K24">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L24">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M24">
-        <v>0.8079639343328904</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N24">
+        <v>0.77579400002514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7220742033363682</v>
+        <v>0.7343590939153241</v>
       </c>
       <c r="D25">
-        <v>0.9722846533336421</v>
+        <v>0.9742645331660255</v>
       </c>
       <c r="E25">
-        <v>0.7667976908560958</v>
+        <v>0.7770828723333522</v>
       </c>
       <c r="F25">
-        <v>0.7902133401524811</v>
+        <v>0.799143354221153</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.023439324800406</v>
+        <v>1.024440572231819</v>
       </c>
       <c r="J25">
-        <v>0.7635030413988569</v>
+        <v>0.7746938459053285</v>
       </c>
       <c r="K25">
-        <v>0.9858439892861823</v>
+        <v>0.9877894227484464</v>
       </c>
       <c r="L25">
-        <v>0.7852893213487413</v>
+        <v>0.795241392542076</v>
       </c>
       <c r="M25">
-        <v>0.8079639343328904</v>
+        <v>0.8166270227226866</v>
+      </c>
+      <c r="N25">
+        <v>0.77579400002514</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8397017161086699</v>
+        <v>0.960793477207197</v>
       </c>
       <c r="D2">
-        <v>0.9982966792694168</v>
+        <v>1.028206916870292</v>
       </c>
       <c r="E2">
-        <v>0.8670905479095394</v>
+        <v>0.9712209519651507</v>
       </c>
       <c r="F2">
-        <v>0.8837328898548823</v>
+        <v>1.016443143973156</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0356534361767</v>
+        <v>1.042633548012312</v>
       </c>
       <c r="J2">
-        <v>0.8680221647193888</v>
+        <v>0.984213607606492</v>
       </c>
       <c r="K2">
-        <v>1.00977979517286</v>
+        <v>1.039286788226965</v>
       </c>
       <c r="L2">
-        <v>0.8807750496436487</v>
+        <v>0.9830963383382245</v>
       </c>
       <c r="M2">
-        <v>0.8970907907157596</v>
+        <v>1.027678055844374</v>
       </c>
       <c r="N2">
-        <v>0.8692548557568243</v>
+        <v>0.9856113038201718</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8730315911484526</v>
+        <v>0.9725066509025191</v>
       </c>
       <c r="D3">
-        <v>1.006782296140047</v>
+        <v>1.033828187795118</v>
       </c>
       <c r="E3">
-        <v>0.8958706463809254</v>
+        <v>0.9811820010525013</v>
       </c>
       <c r="F3">
-        <v>0.9112444078199082</v>
+        <v>1.024113460455193</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039454513226704</v>
+        <v>1.045079828734527</v>
       </c>
       <c r="J3">
-        <v>0.897703806386107</v>
+        <v>0.9937759445671632</v>
       </c>
       <c r="K3">
-        <v>1.017329125553185</v>
+        <v>1.04404578070231</v>
       </c>
       <c r="L3">
-        <v>0.9080354471169843</v>
+        <v>0.9920614619548366</v>
       </c>
       <c r="M3">
-        <v>0.9231547629320691</v>
+        <v>1.034446828579477</v>
       </c>
       <c r="N3">
-        <v>0.8989786487592411</v>
+        <v>0.9951872203961429</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8916149767047294</v>
+        <v>0.9797499031607344</v>
       </c>
       <c r="D4">
-        <v>1.011669420772699</v>
+        <v>1.037325089232039</v>
       </c>
       <c r="E4">
-        <v>0.9119587674230264</v>
+        <v>0.9873496331512711</v>
       </c>
       <c r="F4">
-        <v>0.9266938314517627</v>
+        <v>1.028881228917732</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041601939820865</v>
+        <v>1.046583484077793</v>
       </c>
       <c r="J4">
-        <v>0.9142658623133084</v>
+        <v>0.9996861866384902</v>
       </c>
       <c r="K4">
-        <v>1.021629017155037</v>
+        <v>1.046992974240283</v>
       </c>
       <c r="L4">
-        <v>0.9232503247125972</v>
+        <v>0.9976031735089465</v>
       </c>
       <c r="M4">
-        <v>0.9377656669839074</v>
+        <v>1.038643144249123</v>
       </c>
       <c r="N4">
-        <v>0.9155642247055533</v>
+        <v>1.001105855689125</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8988962058369622</v>
+        <v>0.9827214371297566</v>
       </c>
       <c r="D5">
-        <v>1.013612031377569</v>
+        <v>1.038763982929584</v>
       </c>
       <c r="E5">
-        <v>0.9182689780373493</v>
+        <v>0.9898815416940719</v>
       </c>
       <c r="F5">
-        <v>0.9327651970320442</v>
+        <v>1.030842384684128</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042446362567708</v>
+        <v>1.047197921174336</v>
       </c>
       <c r="J5">
-        <v>0.9207561548355552</v>
+        <v>1.002109967431947</v>
       </c>
       <c r="K5">
-        <v>1.023328348989077</v>
+        <v>1.048202580140063</v>
       </c>
       <c r="L5">
-        <v>0.9292128390155655</v>
+        <v>0.999875931974568</v>
       </c>
       <c r="M5">
-        <v>0.9435020068265209</v>
+        <v>1.040366654836017</v>
       </c>
       <c r="N5">
-        <v>0.9220637341876289</v>
+        <v>1.00353307852932</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9000913789721695</v>
+        <v>0.983216242013668</v>
       </c>
       <c r="D6">
-        <v>1.013932321082128</v>
+        <v>1.039003814260193</v>
       </c>
       <c r="E6">
-        <v>0.9193050871424557</v>
+        <v>0.9903032327948376</v>
       </c>
       <c r="F6">
-        <v>0.9337626627613791</v>
+        <v>1.031169232601899</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042585064647295</v>
+        <v>1.047300083892408</v>
       </c>
       <c r="J6">
-        <v>0.9218215195866593</v>
+        <v>1.002513506245739</v>
       </c>
       <c r="K6">
-        <v>1.023607982919125</v>
+        <v>1.048404014690689</v>
       </c>
       <c r="L6">
-        <v>0.9301915632041778</v>
+        <v>1.00025433260829</v>
       </c>
       <c r="M6">
-        <v>0.944444120291432</v>
+        <v>1.040653746253084</v>
       </c>
       <c r="N6">
-        <v>0.9231306118788786</v>
+        <v>1.003937190414515</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8917141774562011</v>
+        <v>0.979789889450368</v>
       </c>
       <c r="D7">
-        <v>1.011695785671222</v>
+        <v>1.037344435443904</v>
       </c>
       <c r="E7">
-        <v>0.9120447153511108</v>
+        <v>0.9873836974073242</v>
       </c>
       <c r="F7">
-        <v>0.9267764846581159</v>
+        <v>1.028907599399454</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041613436172746</v>
+        <v>1.046591762204026</v>
       </c>
       <c r="J7">
-        <v>0.914354285020208</v>
+        <v>0.9997188058578828</v>
       </c>
       <c r="K7">
-        <v>1.021652118119023</v>
+        <v>1.047009249791922</v>
       </c>
       <c r="L7">
-        <v>0.9233315572197047</v>
+        <v>0.9976337598662222</v>
       </c>
       <c r="M7">
-        <v>0.9378437807774954</v>
+        <v>1.038666329430713</v>
       </c>
       <c r="N7">
-        <v>0.9156527729828391</v>
+        <v>1.001138521231551</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8517289407455986</v>
+        <v>0.9648260342283438</v>
       </c>
       <c r="D8">
-        <v>1.001315094588579</v>
+        <v>1.030137289637456</v>
       </c>
       <c r="E8">
-        <v>0.8774636024317445</v>
+        <v>0.9746484566758851</v>
       </c>
       <c r="F8">
-        <v>0.8936282000014056</v>
+        <v>1.019078138813907</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037015563899842</v>
+        <v>1.043477512510031</v>
       </c>
       <c r="J8">
-        <v>0.8787282204624985</v>
+        <v>0.98750619945549</v>
       </c>
       <c r="K8">
-        <v>1.01247728150208</v>
+        <v>1.040923938343783</v>
       </c>
       <c r="L8">
-        <v>0.8906062063027291</v>
+        <v>0.9861831452604235</v>
       </c>
       <c r="M8">
-        <v>0.9064718412209483</v>
+        <v>1.030005739905958</v>
       </c>
       <c r="N8">
-        <v>0.8799761153270911</v>
+        <v>0.9889085715272611</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7343590939153241</v>
+        <v>0.9355114968546895</v>
       </c>
       <c r="D9">
-        <v>0.9742645331660255</v>
+        <v>1.016232746456764</v>
       </c>
       <c r="E9">
-        <v>0.7770828723333522</v>
+        <v>0.9497801340585296</v>
       </c>
       <c r="F9">
-        <v>0.799143354221153</v>
+        <v>1.000069210689212</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024440572231819</v>
+        <v>1.037314582322267</v>
       </c>
       <c r="J9">
-        <v>0.7746938459053285</v>
+        <v>0.9635667360238906</v>
       </c>
       <c r="K9">
-        <v>0.9877894227484464</v>
+        <v>1.029067836380646</v>
       </c>
       <c r="L9">
-        <v>0.795241392542076</v>
+        <v>0.9637441709810745</v>
       </c>
       <c r="M9">
-        <v>0.8166270227226866</v>
+        <v>1.013161165098002</v>
       </c>
       <c r="N9">
-        <v>0.77579400002514</v>
+        <v>0.964935111311694</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7343590939153241</v>
+        <v>0.9133293850835208</v>
       </c>
       <c r="D10">
-        <v>0.9742645331660255</v>
+        <v>1.005929338137874</v>
       </c>
       <c r="E10">
-        <v>0.7770828723333522</v>
+        <v>0.9310437459575654</v>
       </c>
       <c r="F10">
-        <v>0.799143354221153</v>
+        <v>0.9859287444110415</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024440572231819</v>
+        <v>1.032633104308976</v>
       </c>
       <c r="J10">
-        <v>0.7746938459053285</v>
+        <v>0.9454601613896865</v>
       </c>
       <c r="K10">
-        <v>0.9877894227484464</v>
+        <v>1.020192355493698</v>
       </c>
       <c r="L10">
-        <v>0.795241392542076</v>
+        <v>0.9467806067787196</v>
       </c>
       <c r="M10">
-        <v>0.8166270227226866</v>
+        <v>1.000556793972043</v>
       </c>
       <c r="N10">
-        <v>0.77579400002514</v>
+        <v>0.9468028232646559</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7343590939153241</v>
+        <v>0.9028944138970227</v>
       </c>
       <c r="D11">
-        <v>0.9742645331660255</v>
+        <v>1.001154807509878</v>
       </c>
       <c r="E11">
-        <v>0.7770828723333522</v>
+        <v>0.9222569857614911</v>
       </c>
       <c r="F11">
-        <v>0.799143354221153</v>
+        <v>0.9793562858597413</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024440572231819</v>
+        <v>1.030433852694016</v>
       </c>
       <c r="J11">
-        <v>0.7746938459053285</v>
+        <v>0.9369500327631632</v>
       </c>
       <c r="K11">
-        <v>0.9877894227484464</v>
+        <v>1.016054978663037</v>
       </c>
       <c r="L11">
-        <v>0.795241392542076</v>
+        <v>0.9388107082991165</v>
       </c>
       <c r="M11">
-        <v>0.8166270227226866</v>
+        <v>0.9946783034292179</v>
       </c>
       <c r="N11">
-        <v>0.77579400002514</v>
+        <v>0.9382806092793579</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7343590939153241</v>
+        <v>0.8988701454383207</v>
       </c>
       <c r="D12">
-        <v>0.9742645331660255</v>
+        <v>0.9993265922884752</v>
       </c>
       <c r="E12">
-        <v>0.7770828723333522</v>
+        <v>0.9188733343306896</v>
       </c>
       <c r="F12">
-        <v>0.799143354221153</v>
+        <v>0.9768359026279072</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024440572231819</v>
+        <v>1.029586957424669</v>
       </c>
       <c r="J12">
-        <v>0.7746938459053285</v>
+        <v>0.9336698643706456</v>
       </c>
       <c r="K12">
-        <v>0.9877894227484464</v>
+        <v>1.014466705108989</v>
       </c>
       <c r="L12">
-        <v>0.795241392542076</v>
+        <v>0.935739344740634</v>
       </c>
       <c r="M12">
-        <v>0.8166270227226866</v>
+        <v>0.9924207653573417</v>
       </c>
       <c r="N12">
-        <v>0.77579400002514</v>
+        <v>0.9349957826714822</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7343590939153241</v>
+        <v>0.8997405269785432</v>
       </c>
       <c r="D13">
-        <v>0.9742645331660255</v>
+        <v>0.9997213747100773</v>
       </c>
       <c r="E13">
-        <v>0.7770828723333522</v>
+        <v>0.9196049204543311</v>
       </c>
       <c r="F13">
-        <v>0.799143354221153</v>
+        <v>0.97738033226421</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024440572231819</v>
+        <v>1.029770055651537</v>
       </c>
       <c r="J13">
-        <v>0.7746938459053285</v>
+        <v>0.934379217522274</v>
       </c>
       <c r="K13">
-        <v>0.9877894227484464</v>
+        <v>1.014809862826888</v>
       </c>
       <c r="L13">
-        <v>0.795241392542076</v>
+        <v>0.9364035144503445</v>
       </c>
       <c r="M13">
-        <v>0.8166270227226866</v>
+        <v>0.9929085702106032</v>
       </c>
       <c r="N13">
-        <v>0.77579400002514</v>
+        <v>0.9357061431859498</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7343590939153241</v>
+        <v>0.9025649516718663</v>
       </c>
       <c r="D14">
-        <v>0.9742645331660255</v>
+        <v>1.001004855476789</v>
       </c>
       <c r="E14">
-        <v>0.7770828723333522</v>
+        <v>0.9219798638962657</v>
       </c>
       <c r="F14">
-        <v>0.799143354221153</v>
+        <v>0.9791496415402263</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024440572231819</v>
+        <v>1.030364487964035</v>
       </c>
       <c r="J14">
-        <v>0.7746938459053285</v>
+        <v>0.9366814490635101</v>
       </c>
       <c r="K14">
-        <v>0.9877894227484464</v>
+        <v>1.015924790562405</v>
       </c>
       <c r="L14">
-        <v>0.795241392542076</v>
+        <v>0.9385592093012179</v>
       </c>
       <c r="M14">
-        <v>0.8166270227226866</v>
+        <v>0.9944932774927564</v>
       </c>
       <c r="N14">
-        <v>0.77579400002514</v>
+        <v>0.9380116441600442</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7343590939153241</v>
+        <v>0.9042847077636421</v>
       </c>
       <c r="D15">
-        <v>0.9742645331660255</v>
+        <v>1.001788130536517</v>
       </c>
       <c r="E15">
-        <v>0.7770828723333522</v>
+        <v>0.9234266157680536</v>
       </c>
       <c r="F15">
-        <v>0.799143354221153</v>
+        <v>0.9802288936155625</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024440572231819</v>
+        <v>1.030726619709431</v>
       </c>
       <c r="J15">
-        <v>0.7746938459053285</v>
+        <v>0.9380835019965503</v>
       </c>
       <c r="K15">
-        <v>0.9877894227484464</v>
+        <v>1.016604663382936</v>
       </c>
       <c r="L15">
-        <v>0.795241392542076</v>
+        <v>0.9398721012546725</v>
       </c>
       <c r="M15">
-        <v>0.8166270227226866</v>
+        <v>0.9954594879712683</v>
       </c>
       <c r="N15">
-        <v>0.77579400002514</v>
+        <v>0.9394156881690673</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7343590939153241</v>
+        <v>0.9140025684296983</v>
       </c>
       <c r="D16">
-        <v>0.9742645331660255</v>
+        <v>1.006238999252768</v>
       </c>
       <c r="E16">
-        <v>0.7770828723333522</v>
+        <v>0.9316112223975148</v>
       </c>
       <c r="F16">
-        <v>0.799143354221153</v>
+        <v>0.9863545488543425</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024440572231819</v>
+        <v>1.032775106402499</v>
       </c>
       <c r="J16">
-        <v>0.7746938459053285</v>
+        <v>0.9460093728478534</v>
       </c>
       <c r="K16">
-        <v>0.9877894227484464</v>
+        <v>1.020460163513355</v>
       </c>
       <c r="L16">
-        <v>0.795241392542076</v>
+        <v>0.9472950246830339</v>
       </c>
       <c r="M16">
-        <v>0.8166270227226866</v>
+        <v>1.000937208894082</v>
       </c>
       <c r="N16">
-        <v>0.77579400002514</v>
+        <v>0.9473528146660889</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7343590939153241</v>
+        <v>0.9198614262942032</v>
       </c>
       <c r="D17">
-        <v>0.9742645331660255</v>
+        <v>1.008942250984207</v>
       </c>
       <c r="E17">
-        <v>0.7770828723333522</v>
+        <v>0.936553180938725</v>
       </c>
       <c r="F17">
-        <v>0.799143354221153</v>
+        <v>0.9900694164387422</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024440572231819</v>
+        <v>1.034011389776903</v>
       </c>
       <c r="J17">
-        <v>0.7746938459053285</v>
+        <v>0.9507901757658057</v>
       </c>
       <c r="K17">
-        <v>0.9877894227484464</v>
+        <v>1.022795285986952</v>
       </c>
       <c r="L17">
-        <v>0.795241392542076</v>
+        <v>0.9517732987613203</v>
       </c>
       <c r="M17">
-        <v>0.8166270227226866</v>
+        <v>1.004253834381487</v>
       </c>
       <c r="N17">
-        <v>0.77579400002514</v>
+        <v>0.9521404068725509</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7343590939153241</v>
+        <v>0.923200601068114</v>
       </c>
       <c r="D18">
-        <v>0.9742645331660255</v>
+        <v>1.010489414423481</v>
       </c>
       <c r="E18">
-        <v>0.7770828723333522</v>
+        <v>0.9393722170101684</v>
       </c>
       <c r="F18">
-        <v>0.799143354221153</v>
+        <v>0.9921937776521944</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024440572231819</v>
+        <v>1.034716212149537</v>
       </c>
       <c r="J18">
-        <v>0.7746938459053285</v>
+        <v>0.9535155799889733</v>
       </c>
       <c r="K18">
-        <v>0.9877894227484464</v>
+        <v>1.024129510417997</v>
       </c>
       <c r="L18">
-        <v>0.795241392542076</v>
+        <v>0.954326506845409</v>
       </c>
       <c r="M18">
-        <v>0.8166270227226866</v>
+        <v>1.006148630996645</v>
       </c>
       <c r="N18">
-        <v>0.77579400002514</v>
+        <v>0.9548696814823234</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7343590939153241</v>
+        <v>0.92432652352474</v>
       </c>
       <c r="D19">
-        <v>0.9742645331660255</v>
+        <v>1.011012139427722</v>
       </c>
       <c r="E19">
-        <v>0.7770828723333522</v>
+        <v>0.940323147069357</v>
       </c>
       <c r="F19">
-        <v>0.799143354221153</v>
+        <v>0.9929112311596762</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024440572231819</v>
+        <v>1.034953885268864</v>
       </c>
       <c r="J19">
-        <v>0.7746938459053285</v>
+        <v>0.9544346423773331</v>
       </c>
       <c r="K19">
-        <v>0.9877894227484464</v>
+        <v>1.024579919536846</v>
       </c>
       <c r="L19">
-        <v>0.795241392542076</v>
+        <v>0.9551875434124069</v>
       </c>
       <c r="M19">
-        <v>0.8166270227226866</v>
+        <v>1.006788251027882</v>
       </c>
       <c r="N19">
-        <v>0.77579400002514</v>
+        <v>0.9557900490446927</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7343590939153241</v>
+        <v>0.9192410643675296</v>
       </c>
       <c r="D20">
-        <v>0.9742645331660255</v>
+        <v>1.00865532838875</v>
       </c>
       <c r="E20">
-        <v>0.7770828723333522</v>
+        <v>0.9360296448162982</v>
       </c>
       <c r="F20">
-        <v>0.799143354221153</v>
+        <v>0.9896753117319937</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024440572231819</v>
+        <v>1.033880458680787</v>
       </c>
       <c r="J20">
-        <v>0.7746938459053285</v>
+        <v>0.9502838911483245</v>
       </c>
       <c r="K20">
-        <v>0.9877894227484464</v>
+        <v>1.022547672708605</v>
       </c>
       <c r="L20">
-        <v>0.795241392542076</v>
+        <v>0.9512990231548025</v>
       </c>
       <c r="M20">
-        <v>0.8166270227226866</v>
+        <v>1.003902170790123</v>
       </c>
       <c r="N20">
-        <v>0.77579400002514</v>
+        <v>0.9516334032728411</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7343590939153241</v>
+        <v>0.9017375450186778</v>
       </c>
       <c r="D21">
-        <v>0.9742645331660255</v>
+        <v>1.000628485954677</v>
       </c>
       <c r="E21">
-        <v>0.7770828723333522</v>
+        <v>0.9212839871607367</v>
       </c>
       <c r="F21">
-        <v>0.799143354221153</v>
+        <v>0.9786309157008637</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024440572231819</v>
+        <v>1.030190309417675</v>
       </c>
       <c r="J21">
-        <v>0.7746938459053285</v>
+        <v>0.936006962791191</v>
       </c>
       <c r="K21">
-        <v>0.9877894227484464</v>
+        <v>1.015597961251958</v>
       </c>
       <c r="L21">
-        <v>0.795241392542076</v>
+        <v>0.9379276370496554</v>
       </c>
       <c r="M21">
-        <v>0.8166270227226866</v>
+        <v>0.9940287653595856</v>
       </c>
       <c r="N21">
-        <v>0.77579400002514</v>
+        <v>0.9373362000398536</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7343590939153241</v>
+        <v>0.8898573683088095</v>
       </c>
       <c r="D22">
-        <v>0.9742645331660255</v>
+        <v>0.9952594375452374</v>
       </c>
       <c r="E22">
-        <v>0.7770828723333522</v>
+        <v>0.9113057740283158</v>
       </c>
       <c r="F22">
-        <v>0.799143354221153</v>
+        <v>0.9712210178203571</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024440572231819</v>
+        <v>1.027693639871587</v>
       </c>
       <c r="J22">
-        <v>0.7746938459053285</v>
+        <v>0.9263277656761248</v>
       </c>
       <c r="K22">
-        <v>0.9877894227484464</v>
+        <v>1.010925394514312</v>
       </c>
       <c r="L22">
-        <v>0.795241392542076</v>
+        <v>0.9288658674723598</v>
       </c>
       <c r="M22">
-        <v>0.8166270227226866</v>
+        <v>0.9873849937437564</v>
       </c>
       <c r="N22">
-        <v>0.77579400002514</v>
+        <v>0.9276432573546649</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7343590939153241</v>
+        <v>0.8962480269424462</v>
       </c>
       <c r="D23">
-        <v>0.9742645331660255</v>
+        <v>0.9981393880219498</v>
       </c>
       <c r="E23">
-        <v>0.7770828723333522</v>
+        <v>0.9166701646517031</v>
       </c>
       <c r="F23">
-        <v>0.799143354221153</v>
+        <v>0.9751980608357351</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024440572231819</v>
+        <v>1.029035609881943</v>
       </c>
       <c r="J23">
-        <v>0.7746938459053285</v>
+        <v>0.9315331814239778</v>
       </c>
       <c r="K23">
-        <v>0.9877894227484464</v>
+        <v>1.013434125880183</v>
       </c>
       <c r="L23">
-        <v>0.795241392542076</v>
+        <v>0.9337388577433756</v>
       </c>
       <c r="M23">
-        <v>0.8166270227226866</v>
+        <v>0.9909527661103514</v>
       </c>
       <c r="N23">
-        <v>0.77579400002514</v>
+        <v>0.9328560653899493</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7343590939153241</v>
+        <v>0.919521619166899</v>
       </c>
       <c r="D24">
-        <v>0.9742645331660255</v>
+        <v>1.008785067265278</v>
       </c>
       <c r="E24">
-        <v>0.7770828723333522</v>
+        <v>0.9362664032144509</v>
       </c>
       <c r="F24">
-        <v>0.799143354221153</v>
+        <v>0.9898535210558618</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024440572231819</v>
+        <v>1.033939670819748</v>
       </c>
       <c r="J24">
-        <v>0.7746938459053285</v>
+        <v>0.9505128532086802</v>
       </c>
       <c r="K24">
-        <v>0.9877894227484464</v>
+        <v>1.022659643914043</v>
       </c>
       <c r="L24">
-        <v>0.795241392542076</v>
+        <v>0.9515135086409373</v>
       </c>
       <c r="M24">
-        <v>0.8166270227226866</v>
+        <v>1.004061194439121</v>
       </c>
       <c r="N24">
-        <v>0.77579400002514</v>
+        <v>0.9518626904855845</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7343590939153241</v>
+        <v>0.9434983950537504</v>
       </c>
       <c r="D25">
-        <v>0.9742645331660255</v>
+        <v>1.01999048733902</v>
       </c>
       <c r="E25">
-        <v>0.7770828723333522</v>
+        <v>0.9565442399690258</v>
       </c>
       <c r="F25">
-        <v>0.799143354221153</v>
+        <v>1.005213710234882</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024440572231819</v>
+        <v>1.038998637392203</v>
       </c>
       <c r="J25">
-        <v>0.7746938459053285</v>
+        <v>0.9700892718523839</v>
       </c>
       <c r="K25">
-        <v>0.9877894227484464</v>
+        <v>1.032286204839706</v>
       </c>
       <c r="L25">
-        <v>0.795241392542076</v>
+        <v>0.9698568166196107</v>
       </c>
       <c r="M25">
-        <v>0.8166270227226866</v>
+        <v>1.017731625649008</v>
       </c>
       <c r="N25">
-        <v>0.77579400002514</v>
+        <v>0.9714669098892091</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.960793477207197</v>
+        <v>0.9556602971824639</v>
       </c>
       <c r="D2">
-        <v>1.028206916870292</v>
+        <v>1.034897381808997</v>
       </c>
       <c r="E2">
-        <v>0.9712209519651507</v>
+        <v>0.968060353794666</v>
       </c>
       <c r="F2">
-        <v>1.016443143973156</v>
+        <v>1.017974092843293</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042633548012312</v>
+        <v>1.054230651851868</v>
       </c>
       <c r="J2">
-        <v>0.984213607606492</v>
+        <v>0.979253211427136</v>
       </c>
       <c r="K2">
-        <v>1.039286788226965</v>
+        <v>1.045891041627284</v>
       </c>
       <c r="L2">
-        <v>0.9830963383382245</v>
+        <v>0.9799833521462699</v>
       </c>
       <c r="M2">
-        <v>1.027678055844374</v>
+        <v>1.029188572969558</v>
       </c>
       <c r="N2">
-        <v>0.9856113038201718</v>
+        <v>0.996800315340128</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9725066509025191</v>
+        <v>0.9639167535081141</v>
       </c>
       <c r="D3">
-        <v>1.033828187795118</v>
+        <v>1.040166710223807</v>
       </c>
       <c r="E3">
-        <v>0.9811820010525013</v>
+        <v>0.9748610825149516</v>
       </c>
       <c r="F3">
-        <v>1.024113460455193</v>
+        <v>1.024905085527372</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045079828734527</v>
+        <v>1.056419630318159</v>
       </c>
       <c r="J3">
-        <v>0.9937759445671632</v>
+        <v>0.9854418694150999</v>
       </c>
       <c r="K3">
-        <v>1.04404578070231</v>
+        <v>1.050310205193331</v>
       </c>
       <c r="L3">
-        <v>0.9920614619548366</v>
+        <v>0.9858260569570131</v>
       </c>
       <c r="M3">
-        <v>1.034446828579477</v>
+        <v>1.035228917534444</v>
       </c>
       <c r="N3">
-        <v>0.9951872203961429</v>
+        <v>0.9989028925700404</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9797499031607344</v>
+        <v>0.9690726330185873</v>
       </c>
       <c r="D4">
-        <v>1.037325089232039</v>
+        <v>1.043447692337585</v>
       </c>
       <c r="E4">
-        <v>0.9873496331512711</v>
+        <v>0.9791165105152795</v>
       </c>
       <c r="F4">
-        <v>1.028881228917732</v>
+        <v>1.029223022441528</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046583484077793</v>
+        <v>1.05776320181453</v>
       </c>
       <c r="J4">
-        <v>0.9996861866384902</v>
+        <v>0.9893019726260808</v>
       </c>
       <c r="K4">
-        <v>1.046992974240283</v>
+        <v>1.053048564573281</v>
       </c>
       <c r="L4">
-        <v>0.9976031735089465</v>
+        <v>0.9894736913911067</v>
       </c>
       <c r="M4">
-        <v>1.038643144249123</v>
+        <v>1.038981094683496</v>
       </c>
       <c r="N4">
-        <v>1.001105855689125</v>
+        <v>1.000213638012597</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9827214371297566</v>
+        <v>0.9711983598092679</v>
       </c>
       <c r="D5">
-        <v>1.038763982929584</v>
+        <v>1.044797689863207</v>
       </c>
       <c r="E5">
-        <v>0.9898815416940719</v>
+        <v>0.9808729172683147</v>
       </c>
       <c r="F5">
-        <v>1.030842384684128</v>
+        <v>1.031000413517687</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047197921174336</v>
+        <v>1.058311307835639</v>
       </c>
       <c r="J5">
-        <v>1.002109967431947</v>
+        <v>0.990892285220092</v>
       </c>
       <c r="K5">
-        <v>1.048202580140063</v>
+        <v>1.054172098268359</v>
       </c>
       <c r="L5">
-        <v>0.999875931974568</v>
+        <v>0.9909772532385402</v>
       </c>
       <c r="M5">
-        <v>1.040366654836017</v>
+        <v>1.040522958774388</v>
       </c>
       <c r="N5">
-        <v>1.00353307852932</v>
+        <v>1.000753460997219</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.983216242013668</v>
+        <v>0.9715529052805375</v>
       </c>
       <c r="D6">
-        <v>1.039003814260193</v>
+        <v>1.04502268069424</v>
       </c>
       <c r="E6">
-        <v>0.9903032327948376</v>
+        <v>0.9811659743934743</v>
       </c>
       <c r="F6">
-        <v>1.031169232601899</v>
+        <v>1.031296681452368</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047300083892408</v>
+        <v>1.058402375424837</v>
       </c>
       <c r="J6">
-        <v>1.002513506245739</v>
+        <v>0.9911574582543727</v>
       </c>
       <c r="K6">
-        <v>1.048404014690689</v>
+        <v>1.054359158038902</v>
       </c>
       <c r="L6">
-        <v>1.00025433260829</v>
+        <v>0.9912280070121088</v>
       </c>
       <c r="M6">
-        <v>1.040653746253084</v>
+        <v>1.040779810966626</v>
       </c>
       <c r="N6">
-        <v>1.003937190414515</v>
+        <v>1.000843461080231</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.979789889450368</v>
+        <v>0.9691011977716621</v>
       </c>
       <c r="D7">
-        <v>1.037344435443904</v>
+        <v>1.043465844469437</v>
       </c>
       <c r="E7">
-        <v>0.9873836974073242</v>
+        <v>0.979140105005919</v>
       </c>
       <c r="F7">
-        <v>1.028907599399454</v>
+        <v>1.029246918223833</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046591762204026</v>
+        <v>1.057770590490845</v>
       </c>
       <c r="J7">
-        <v>0.9997188058578828</v>
+        <v>0.9893233474570533</v>
       </c>
       <c r="K7">
-        <v>1.047009249791922</v>
+        <v>1.053063684357204</v>
       </c>
       <c r="L7">
-        <v>0.9976337598662222</v>
+        <v>0.989493897144216</v>
       </c>
       <c r="M7">
-        <v>1.038666329430713</v>
+        <v>1.039001834492823</v>
       </c>
       <c r="N7">
-        <v>1.001138521231551</v>
+        <v>1.000220894345658</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9648260342283438</v>
+        <v>0.9584910631791304</v>
       </c>
       <c r="D8">
-        <v>1.030137289637456</v>
+        <v>1.036705736488128</v>
       </c>
       <c r="E8">
-        <v>0.9746484566758851</v>
+        <v>0.9703901067795495</v>
       </c>
       <c r="F8">
-        <v>1.019078138813907</v>
+        <v>1.020352326089597</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043477512510031</v>
+        <v>1.054985958423894</v>
       </c>
       <c r="J8">
-        <v>0.98750619945549</v>
+        <v>0.9813759160115291</v>
       </c>
       <c r="K8">
-        <v>1.040923938343783</v>
+        <v>1.047410441056505</v>
       </c>
       <c r="L8">
-        <v>0.9861831452604235</v>
+        <v>0.9819866842235375</v>
       </c>
       <c r="M8">
-        <v>1.030005739905958</v>
+        <v>1.031263492502771</v>
       </c>
       <c r="N8">
-        <v>0.9889085715272611</v>
+        <v>0.997521638286509</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9355114968546895</v>
+        <v>0.9382190714533126</v>
       </c>
       <c r="D9">
-        <v>1.016232746456764</v>
+        <v>1.023734336672938</v>
       </c>
       <c r="E9">
-        <v>0.9497801340585296</v>
+        <v>0.9537501515155413</v>
       </c>
       <c r="F9">
-        <v>1.000069210689212</v>
+        <v>1.003295329847246</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037314582322267</v>
+        <v>1.049485327819443</v>
       </c>
       <c r="J9">
-        <v>0.9635667360238906</v>
+        <v>0.9661593583565253</v>
       </c>
       <c r="K9">
-        <v>1.029067836380646</v>
+        <v>1.03645372952165</v>
       </c>
       <c r="L9">
-        <v>0.9637441709810745</v>
+        <v>0.967640988256803</v>
       </c>
       <c r="M9">
-        <v>1.013161165098002</v>
+        <v>1.016335167922733</v>
       </c>
       <c r="N9">
-        <v>0.964935111311694</v>
+        <v>0.99234848229288</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9133293850835208</v>
+        <v>0.9234067222723735</v>
       </c>
       <c r="D10">
-        <v>1.005929338137874</v>
+        <v>1.01425565905884</v>
       </c>
       <c r="E10">
-        <v>0.9310437459575654</v>
+        <v>0.9416572339220928</v>
       </c>
       <c r="F10">
-        <v>0.9859287444110415</v>
+        <v>0.9908238843364973</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032633104308976</v>
+        <v>1.045361375442412</v>
       </c>
       <c r="J10">
-        <v>0.9454601613896865</v>
+        <v>0.9550271865272422</v>
       </c>
       <c r="K10">
-        <v>1.020192355493698</v>
+        <v>1.028372206719222</v>
       </c>
       <c r="L10">
-        <v>0.9467806067787196</v>
+        <v>0.9571663296942501</v>
       </c>
       <c r="M10">
-        <v>1.000556793972043</v>
+        <v>1.005360816706349</v>
       </c>
       <c r="N10">
-        <v>0.9468028232646559</v>
+        <v>0.9885617871175318</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9028944138970227</v>
+        <v>0.9166194396375086</v>
       </c>
       <c r="D11">
-        <v>1.001154807509878</v>
+        <v>1.009922131159476</v>
       </c>
       <c r="E11">
-        <v>0.9222569857614911</v>
+        <v>0.9361349302569705</v>
       </c>
       <c r="F11">
-        <v>0.9793562858597413</v>
+        <v>0.9851166852870452</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030433852694016</v>
+        <v>1.043451729647659</v>
       </c>
       <c r="J11">
-        <v>0.9369500327631632</v>
+        <v>0.949925175718952</v>
       </c>
       <c r="K11">
-        <v>1.016054978663037</v>
+        <v>1.024659325411495</v>
       </c>
       <c r="L11">
-        <v>0.9388107082991165</v>
+        <v>0.9523708628343039</v>
       </c>
       <c r="M11">
-        <v>0.9946783034292179</v>
+        <v>1.00032484521016</v>
       </c>
       <c r="N11">
-        <v>0.9382806092793579</v>
+        <v>0.986826144931623</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8988701454383207</v>
+        <v>0.9140354740164994</v>
       </c>
       <c r="D12">
-        <v>0.9993265922884752</v>
+        <v>1.008274790901501</v>
       </c>
       <c r="E12">
-        <v>0.9188733343306896</v>
+        <v>0.9340357200858045</v>
       </c>
       <c r="F12">
-        <v>0.9768359026279072</v>
+        <v>0.9829459835745306</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029586957424669</v>
+        <v>1.042722203732591</v>
       </c>
       <c r="J12">
-        <v>0.9336698643706456</v>
+        <v>0.9479828709852087</v>
       </c>
       <c r="K12">
-        <v>1.014466705108989</v>
+        <v>1.023245157705754</v>
       </c>
       <c r="L12">
-        <v>0.935739344740634</v>
+        <v>0.9505460735083536</v>
       </c>
       <c r="M12">
-        <v>0.9924207653573417</v>
+        <v>0.9984073710651976</v>
       </c>
       <c r="N12">
-        <v>0.9349957826714822</v>
+        <v>0.9861654071310108</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8997405269785432</v>
+        <v>0.9145927096878934</v>
       </c>
       <c r="D13">
-        <v>0.9997213747100773</v>
+        <v>1.008629913407332</v>
       </c>
       <c r="E13">
-        <v>0.9196049204543311</v>
+        <v>0.9344882688375378</v>
       </c>
       <c r="F13">
-        <v>0.97738033226421</v>
+        <v>0.9834139882043631</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029770055651537</v>
+        <v>1.042879631555655</v>
       </c>
       <c r="J13">
-        <v>0.934379217522274</v>
+        <v>0.9484017246646212</v>
       </c>
       <c r="K13">
-        <v>1.014809862826888</v>
+        <v>1.023550139617715</v>
       </c>
       <c r="L13">
-        <v>0.9364035144503445</v>
+        <v>0.9509395478387871</v>
       </c>
       <c r="M13">
-        <v>0.9929085702106032</v>
+        <v>0.998820872843898</v>
       </c>
       <c r="N13">
-        <v>0.9357061431859498</v>
+        <v>0.9863078926947471</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9025649516718663</v>
+        <v>0.9164071739826013</v>
       </c>
       <c r="D14">
-        <v>1.001004855476789</v>
+        <v>1.009786750595373</v>
       </c>
       <c r="E14">
-        <v>0.9219798638962657</v>
+        <v>0.9359624197072116</v>
       </c>
       <c r="F14">
-        <v>0.9791496415402263</v>
+        <v>0.9849383202722157</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030364487964035</v>
+        <v>1.043391848846188</v>
       </c>
       <c r="J14">
-        <v>0.9366814490635101</v>
+        <v>0.949765617986858</v>
       </c>
       <c r="K14">
-        <v>1.015924790562405</v>
+        <v>1.02454316339905</v>
       </c>
       <c r="L14">
-        <v>0.9385592093012179</v>
+        <v>0.9522209421006376</v>
       </c>
       <c r="M14">
-        <v>0.9944932774927564</v>
+        <v>1.000167329566017</v>
       </c>
       <c r="N14">
-        <v>0.9380116441600442</v>
+        <v>0.9867718657814543</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9042847077636421</v>
+        <v>0.9175165727529899</v>
       </c>
       <c r="D15">
-        <v>1.001788130536517</v>
+        <v>1.01049441839219</v>
       </c>
       <c r="E15">
-        <v>0.9234266157680536</v>
+        <v>0.9368641704377915</v>
       </c>
       <c r="F15">
-        <v>0.9802288936155625</v>
+        <v>0.9858706284590721</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030726619709431</v>
+        <v>1.043704714999266</v>
       </c>
       <c r="J15">
-        <v>0.9380835019965503</v>
+        <v>0.9505995448076321</v>
       </c>
       <c r="K15">
-        <v>1.016604663382936</v>
+        <v>1.025150258869395</v>
       </c>
       <c r="L15">
-        <v>0.9398721012546725</v>
+        <v>0.9530045345541788</v>
       </c>
       <c r="M15">
-        <v>0.9954594879712683</v>
+        <v>1.000990574874151</v>
       </c>
       <c r="N15">
-        <v>0.9394156881690673</v>
+        <v>0.9870555558377935</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9140025684296983</v>
+        <v>0.9238487525852682</v>
       </c>
       <c r="D16">
-        <v>1.006238999252768</v>
+        <v>1.014538166596819</v>
       </c>
       <c r="E16">
-        <v>0.9316112223975148</v>
+        <v>0.9420172962620299</v>
       </c>
       <c r="F16">
-        <v>0.9863545488543425</v>
+        <v>0.9911958021400745</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032775106402499</v>
+        <v>1.045485371764062</v>
       </c>
       <c r="J16">
-        <v>0.9460093728478534</v>
+        <v>0.955359457707024</v>
       </c>
       <c r="K16">
-        <v>1.020460163513355</v>
+        <v>1.028613877375251</v>
       </c>
       <c r="L16">
-        <v>0.9472950246830339</v>
+        <v>0.957478746837676</v>
       </c>
       <c r="M16">
-        <v>1.000937208894082</v>
+        <v>1.005688708449236</v>
       </c>
       <c r="N16">
-        <v>0.9473528146660889</v>
+        <v>0.9886748213133758</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9198614262942032</v>
+        <v>0.9277163556752328</v>
       </c>
       <c r="D17">
-        <v>1.008942250984207</v>
+        <v>1.01701120246309</v>
       </c>
       <c r="E17">
-        <v>0.936553180938725</v>
+        <v>0.9451698604854687</v>
       </c>
       <c r="F17">
-        <v>0.9900694164387422</v>
+        <v>0.9944508780418523</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034011389776903</v>
+        <v>1.046568106737458</v>
       </c>
       <c r="J17">
-        <v>0.9507901757658057</v>
+        <v>0.9582666139166519</v>
       </c>
       <c r="K17">
-        <v>1.022795285986952</v>
+        <v>1.030727396086065</v>
       </c>
       <c r="L17">
-        <v>0.9517732987613203</v>
+        <v>0.9602127792213059</v>
       </c>
       <c r="M17">
-        <v>1.004253834381487</v>
+        <v>1.008556908097975</v>
       </c>
       <c r="N17">
-        <v>0.9521404068725509</v>
+        <v>0.9896637832639453</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.923200601068114</v>
+        <v>0.9299367442984471</v>
       </c>
       <c r="D18">
-        <v>1.010489414423481</v>
+        <v>1.018431811326246</v>
       </c>
       <c r="E18">
-        <v>0.9393722170101684</v>
+        <v>0.9469814830687435</v>
       </c>
       <c r="F18">
-        <v>0.9921937776521944</v>
+        <v>0.9963202410580563</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034716212149537</v>
+        <v>1.047187807001279</v>
       </c>
       <c r="J18">
-        <v>0.9535155799889733</v>
+        <v>0.9599354965887268</v>
       </c>
       <c r="K18">
-        <v>1.024129510417997</v>
+        <v>1.031939795539734</v>
       </c>
       <c r="L18">
-        <v>0.954326506845409</v>
+        <v>0.961782760455052</v>
       </c>
       <c r="M18">
-        <v>1.006148630996645</v>
+        <v>1.010202795681429</v>
       </c>
       <c r="N18">
-        <v>0.9548696814823234</v>
+        <v>0.9902314903055235</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.92432652352474</v>
+        <v>0.9306880019953659</v>
       </c>
       <c r="D19">
-        <v>1.011012139427722</v>
+        <v>1.018912583078584</v>
       </c>
       <c r="E19">
-        <v>0.940323147069357</v>
+        <v>0.9475947225329389</v>
       </c>
       <c r="F19">
-        <v>0.9929112311596762</v>
+        <v>0.9969528115441216</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034953885268864</v>
+        <v>1.047397144429177</v>
       </c>
       <c r="J19">
-        <v>0.9544346423773331</v>
+        <v>0.9605001295660851</v>
       </c>
       <c r="K19">
-        <v>1.024579919536846</v>
+        <v>1.032349818173801</v>
       </c>
       <c r="L19">
-        <v>0.9551875434124069</v>
+        <v>0.9623140129433191</v>
       </c>
       <c r="M19">
-        <v>1.006788251027882</v>
+        <v>1.01075952445316</v>
       </c>
       <c r="N19">
-        <v>0.9557900490446927</v>
+        <v>0.9904235588459548</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9192410643675296</v>
+        <v>0.9273051175758907</v>
       </c>
       <c r="D20">
-        <v>1.00865532838875</v>
+        <v>1.016748153205207</v>
       </c>
       <c r="E20">
-        <v>0.9360296448162982</v>
+        <v>0.9448344687326781</v>
       </c>
       <c r="F20">
-        <v>0.9896753117319937</v>
+        <v>0.9941046979539262</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033880458680787</v>
+        <v>1.046453174893389</v>
       </c>
       <c r="J20">
-        <v>0.9502838911483245</v>
+        <v>0.9579575095019132</v>
       </c>
       <c r="K20">
-        <v>1.022547672708605</v>
+        <v>1.030502763489691</v>
       </c>
       <c r="L20">
-        <v>0.9512990231548025</v>
+        <v>0.9599220318615946</v>
       </c>
       <c r="M20">
-        <v>1.003902170790123</v>
+        <v>1.008252007331141</v>
       </c>
       <c r="N20">
-        <v>0.9516334032728411</v>
+        <v>0.9895586330427536</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9017375450186778</v>
+        <v>0.9158746550870897</v>
       </c>
       <c r="D21">
-        <v>1.000628485954677</v>
+        <v>1.009447159445128</v>
       </c>
       <c r="E21">
-        <v>0.9212839871607367</v>
+        <v>0.9355296880487225</v>
       </c>
       <c r="F21">
-        <v>0.9786309157008637</v>
+        <v>0.9844908859055219</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030190309417675</v>
+        <v>1.043241585095035</v>
       </c>
       <c r="J21">
-        <v>0.936006962791191</v>
+        <v>0.9493653313424053</v>
       </c>
       <c r="K21">
-        <v>1.015597961251958</v>
+        <v>1.02425173595861</v>
       </c>
       <c r="L21">
-        <v>0.9379276370496554</v>
+        <v>0.9518448452753765</v>
       </c>
       <c r="M21">
-        <v>0.9940287653595856</v>
+        <v>0.9997721633110327</v>
       </c>
       <c r="N21">
-        <v>0.9373362000398536</v>
+        <v>0.9866356945554317</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8898573683088095</v>
+        <v>0.9083198781313736</v>
       </c>
       <c r="D22">
-        <v>0.9952594375452374</v>
+        <v>1.004636763072843</v>
       </c>
       <c r="E22">
-        <v>0.9113057740283158</v>
+        <v>0.9293986559548264</v>
       </c>
       <c r="F22">
-        <v>0.9712210178203571</v>
+        <v>0.9781495290556604</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027693639871587</v>
+        <v>1.041104497313567</v>
       </c>
       <c r="J22">
-        <v>0.9263277656761248</v>
+        <v>0.9436869996357814</v>
       </c>
       <c r="K22">
-        <v>1.010925394514312</v>
+        <v>1.020116921027361</v>
       </c>
       <c r="L22">
-        <v>0.9288658674723598</v>
+        <v>0.9465116690657834</v>
       </c>
       <c r="M22">
-        <v>0.9873849937437564</v>
+        <v>0.9941666413953204</v>
       </c>
       <c r="N22">
-        <v>0.9276432573546649</v>
+        <v>0.984704088578896</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8962480269424462</v>
+        <v>0.9123622701917451</v>
       </c>
       <c r="D23">
-        <v>0.9981393880219498</v>
+        <v>1.007208916017256</v>
       </c>
       <c r="E23">
-        <v>0.9166701646517031</v>
+        <v>0.9326773513576803</v>
       </c>
       <c r="F23">
-        <v>0.9751980608357351</v>
+        <v>0.9815410978343387</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029035609881943</v>
+        <v>1.042249171193458</v>
       </c>
       <c r="J23">
-        <v>0.9315331814239778</v>
+        <v>0.9467252138748027</v>
       </c>
       <c r="K23">
-        <v>1.013434125880183</v>
+        <v>1.02232936811842</v>
       </c>
       <c r="L23">
-        <v>0.9337388577433756</v>
+        <v>0.9493647435154682</v>
       </c>
       <c r="M23">
-        <v>0.9909527661103514</v>
+        <v>0.9971657927802163</v>
       </c>
       <c r="N23">
-        <v>0.9328560653899493</v>
+        <v>0.985737581983875</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.919521619166899</v>
+        <v>0.927491047638178</v>
       </c>
       <c r="D24">
-        <v>1.008785067265278</v>
+        <v>1.016867081191352</v>
       </c>
       <c r="E24">
-        <v>0.9362664032144509</v>
+        <v>0.9449861015621055</v>
       </c>
       <c r="F24">
-        <v>0.9898535210558618</v>
+        <v>0.9942612119358838</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033939670819748</v>
+        <v>1.046505144121481</v>
       </c>
       <c r="J24">
-        <v>0.9505128532086802</v>
+        <v>0.9580972629818529</v>
       </c>
       <c r="K24">
-        <v>1.022659643914043</v>
+        <v>1.030604328053641</v>
       </c>
       <c r="L24">
-        <v>0.9515135086409373</v>
+        <v>0.9600534841818206</v>
       </c>
       <c r="M24">
-        <v>1.004061194439121</v>
+        <v>1.008389862252058</v>
       </c>
       <c r="N24">
-        <v>0.9518626904855845</v>
+        <v>0.9896061740204743</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9434983950537504</v>
+        <v>0.9436690440663947</v>
       </c>
       <c r="D25">
-        <v>1.01999048733902</v>
+        <v>1.027224575958898</v>
       </c>
       <c r="E25">
-        <v>0.9565442399690258</v>
+        <v>0.9582135665888989</v>
       </c>
       <c r="F25">
-        <v>1.005213710234882</v>
+        <v>1.007885041731042</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038998637392203</v>
+        <v>1.050983208157335</v>
       </c>
       <c r="J25">
-        <v>0.9700892718523839</v>
+        <v>0.970253160572622</v>
       </c>
       <c r="K25">
-        <v>1.032286204839706</v>
+        <v>1.039414470187485</v>
       </c>
       <c r="L25">
-        <v>0.9698568166196107</v>
+        <v>0.9714971572634407</v>
       </c>
       <c r="M25">
-        <v>1.017731625649008</v>
+        <v>1.020362173436039</v>
       </c>
       <c r="N25">
-        <v>0.9714669098892091</v>
+        <v>0.9937407030492369</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9556602971824639</v>
+        <v>1.016579125216054</v>
       </c>
       <c r="D2">
-        <v>1.034897381808997</v>
+        <v>1.048426908005787</v>
       </c>
       <c r="E2">
-        <v>0.968060353794666</v>
+        <v>1.018066743734281</v>
       </c>
       <c r="F2">
-        <v>1.017974092843293</v>
+        <v>1.049588973064432</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054230651851868</v>
+        <v>1.038683989779495</v>
       </c>
       <c r="J2">
-        <v>0.979253211427136</v>
+        <v>1.021798131300227</v>
       </c>
       <c r="K2">
-        <v>1.045891041627284</v>
+        <v>1.051186784381079</v>
       </c>
       <c r="L2">
-        <v>0.9799833521462699</v>
+        <v>1.020914063343212</v>
       </c>
       <c r="M2">
-        <v>1.029188572969558</v>
+        <v>1.052345611504537</v>
       </c>
       <c r="N2">
-        <v>0.996800315340128</v>
+        <v>1.011289590342848</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9639167535081141</v>
+        <v>1.018159180361971</v>
       </c>
       <c r="D3">
-        <v>1.040166710223807</v>
+        <v>1.049332845072452</v>
       </c>
       <c r="E3">
-        <v>0.9748610825149516</v>
+        <v>1.019422828501661</v>
       </c>
       <c r="F3">
-        <v>1.024905085527372</v>
+        <v>1.050843941809018</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056419630318159</v>
+        <v>1.038937344410625</v>
       </c>
       <c r="J3">
-        <v>0.9854418694150999</v>
+        <v>1.023010383082386</v>
       </c>
       <c r="K3">
-        <v>1.050310205193331</v>
+        <v>1.051904521550316</v>
       </c>
       <c r="L3">
-        <v>0.9858260569570131</v>
+        <v>1.022074361519569</v>
       </c>
       <c r="M3">
-        <v>1.035228917534444</v>
+        <v>1.053411714050287</v>
       </c>
       <c r="N3">
-        <v>0.9989028925700404</v>
+        <v>1.011696015993448</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9690726330185873</v>
+        <v>1.019178858726698</v>
       </c>
       <c r="D4">
-        <v>1.043447692337585</v>
+        <v>1.049914311756314</v>
       </c>
       <c r="E4">
-        <v>0.9791165105152795</v>
+        <v>1.020298313975961</v>
       </c>
       <c r="F4">
-        <v>1.029223022441528</v>
+        <v>1.051650574226001</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05776320181453</v>
+        <v>1.039097368684216</v>
       </c>
       <c r="J4">
-        <v>0.9893019726260808</v>
+        <v>1.023791800922673</v>
       </c>
       <c r="K4">
-        <v>1.053048564573281</v>
+        <v>1.052363590475863</v>
       </c>
       <c r="L4">
-        <v>0.9894736913911067</v>
+        <v>1.022822646097094</v>
       </c>
       <c r="M4">
-        <v>1.038981094683496</v>
+        <v>1.054095594038125</v>
       </c>
       <c r="N4">
-        <v>1.000213638012597</v>
+        <v>1.011957819778471</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9711983598092679</v>
+        <v>1.019606890452698</v>
       </c>
       <c r="D5">
-        <v>1.044797689863207</v>
+        <v>1.050157629500328</v>
       </c>
       <c r="E5">
-        <v>0.9808729172683147</v>
+        <v>1.020665899277383</v>
       </c>
       <c r="F5">
-        <v>1.031000413517687</v>
+        <v>1.051988391389344</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058311307835639</v>
+        <v>1.039163706952734</v>
       </c>
       <c r="J5">
-        <v>0.990892285220092</v>
+        <v>1.024119601083609</v>
       </c>
       <c r="K5">
-        <v>1.054172098268359</v>
+        <v>1.052555303510983</v>
       </c>
       <c r="L5">
-        <v>0.9909772532385402</v>
+        <v>1.023136632410743</v>
       </c>
       <c r="M5">
-        <v>1.040522958774388</v>
+        <v>1.054381675216878</v>
       </c>
       <c r="N5">
-        <v>1.000753460997219</v>
+        <v>1.012067602075899</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9715529052805375</v>
+        <v>1.019678721582711</v>
       </c>
       <c r="D6">
-        <v>1.04502268069424</v>
+        <v>1.050198417383637</v>
       </c>
       <c r="E6">
-        <v>0.9811659743934743</v>
+        <v>1.020727591210107</v>
       </c>
       <c r="F6">
-        <v>1.031296681452368</v>
+        <v>1.052045036824104</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058402375424837</v>
+        <v>1.039174790579778</v>
       </c>
       <c r="J6">
-        <v>0.9911574582543727</v>
+        <v>1.024174598889784</v>
       </c>
       <c r="K6">
-        <v>1.054359158038902</v>
+        <v>1.052587418008582</v>
       </c>
       <c r="L6">
-        <v>0.9912280070121088</v>
+        <v>1.023189317561475</v>
       </c>
       <c r="M6">
-        <v>1.040779810966626</v>
+        <v>1.054429626255681</v>
       </c>
       <c r="N6">
-        <v>1.000843461080231</v>
+        <v>1.012086018663336</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9691011977716621</v>
+        <v>1.019184580611537</v>
       </c>
       <c r="D7">
-        <v>1.043465844469437</v>
+        <v>1.049917567419246</v>
       </c>
       <c r="E7">
-        <v>0.979140105005919</v>
+        <v>1.020303227499515</v>
       </c>
       <c r="F7">
-        <v>1.029246918223833</v>
+        <v>1.051655093220651</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057770590490845</v>
+        <v>1.039098258775609</v>
       </c>
       <c r="J7">
-        <v>0.9893233474570533</v>
+        <v>1.023796183774998</v>
       </c>
       <c r="K7">
-        <v>1.053063684357204</v>
+        <v>1.052366157178847</v>
       </c>
       <c r="L7">
-        <v>0.989493897144216</v>
+        <v>1.022826843915513</v>
       </c>
       <c r="M7">
-        <v>1.039001834492823</v>
+        <v>1.054099422249298</v>
       </c>
       <c r="N7">
-        <v>1.000220894345658</v>
+        <v>1.011959287791448</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9584910631791304</v>
+        <v>1.017113682618306</v>
       </c>
       <c r="D8">
-        <v>1.036705736488128</v>
+        <v>1.04873405583952</v>
       </c>
       <c r="E8">
-        <v>0.9703901067795495</v>
+        <v>1.018525456312781</v>
       </c>
       <c r="F8">
-        <v>1.020352326089597</v>
+        <v>1.050014220514243</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054985958423894</v>
+        <v>1.038770422950121</v>
       </c>
       <c r="J8">
-        <v>0.9813759160115291</v>
+        <v>1.022208441409066</v>
       </c>
       <c r="K8">
-        <v>1.047410441056505</v>
+        <v>1.051430457338792</v>
       </c>
       <c r="L8">
-        <v>0.9819866842235375</v>
+        <v>1.021306714902362</v>
       </c>
       <c r="M8">
-        <v>1.031263492502771</v>
+        <v>1.052707142776246</v>
       </c>
       <c r="N8">
-        <v>0.997521638286509</v>
+        <v>1.011427189902839</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9382190714533126</v>
+        <v>1.013443150269472</v>
       </c>
       <c r="D9">
-        <v>1.023734336672938</v>
+        <v>1.046612159031647</v>
       </c>
       <c r="E9">
-        <v>0.9537501515155413</v>
+        <v>1.015377171470738</v>
       </c>
       <c r="F9">
-        <v>1.003295329847246</v>
+        <v>1.047081051185391</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049485327819443</v>
+        <v>1.038162720731101</v>
       </c>
       <c r="J9">
-        <v>0.9661593583565253</v>
+        <v>1.019387374429421</v>
       </c>
       <c r="K9">
-        <v>1.03645372952165</v>
+        <v>1.049740502809432</v>
       </c>
       <c r="L9">
-        <v>0.967640988256803</v>
+        <v>1.018608524540014</v>
       </c>
       <c r="M9">
-        <v>1.016335167922733</v>
+        <v>1.050207899871445</v>
       </c>
       <c r="N9">
-        <v>0.99234848229288</v>
+        <v>1.010480400711073</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9234067222723735</v>
+        <v>1.010981082883099</v>
       </c>
       <c r="D10">
-        <v>1.01425565905884</v>
+        <v>1.045172889142821</v>
       </c>
       <c r="E10">
-        <v>0.9416572339220928</v>
+        <v>1.013267287629456</v>
       </c>
       <c r="F10">
-        <v>0.9908238843364973</v>
+        <v>1.045097159644038</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045361375442412</v>
+        <v>1.037737336935523</v>
       </c>
       <c r="J10">
-        <v>0.9550271865272422</v>
+        <v>1.017490509755406</v>
       </c>
       <c r="K10">
-        <v>1.028372206719222</v>
+        <v>1.048586031051329</v>
       </c>
       <c r="L10">
-        <v>0.9571663296942501</v>
+        <v>1.016796123454417</v>
       </c>
       <c r="M10">
-        <v>1.005360816706349</v>
+        <v>1.048510566938145</v>
       </c>
       <c r="N10">
-        <v>0.9885617871175318</v>
+        <v>1.009842873861668</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9166194396375086</v>
+        <v>1.009911255083926</v>
       </c>
       <c r="D11">
-        <v>1.009922131159476</v>
+        <v>1.04454376874548</v>
       </c>
       <c r="E11">
-        <v>0.9361349302569705</v>
+        <v>1.012350950902627</v>
       </c>
       <c r="F11">
-        <v>0.9851166852870452</v>
+        <v>1.044231276273299</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043451729647659</v>
+        <v>1.037548320392061</v>
       </c>
       <c r="J11">
-        <v>0.949925175718952</v>
+        <v>1.016665198545045</v>
       </c>
       <c r="K11">
-        <v>1.024659325411495</v>
+        <v>1.048079485444751</v>
       </c>
       <c r="L11">
-        <v>0.9523708628343039</v>
+        <v>1.016007998004312</v>
       </c>
       <c r="M11">
-        <v>1.00032484521016</v>
+        <v>1.047768130962407</v>
       </c>
       <c r="N11">
-        <v>0.986826144931623</v>
+        <v>1.009565276279977</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9140354740164994</v>
+        <v>1.009513298364739</v>
       </c>
       <c r="D12">
-        <v>1.008274790901501</v>
+        <v>1.044309193374891</v>
       </c>
       <c r="E12">
-        <v>0.9340357200858045</v>
+        <v>1.012010160169225</v>
       </c>
       <c r="F12">
-        <v>0.9829459835745306</v>
+        <v>1.043908612074235</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042722203732591</v>
+        <v>1.037477384932274</v>
       </c>
       <c r="J12">
-        <v>0.9479828709852087</v>
+        <v>1.016358036593569</v>
       </c>
       <c r="K12">
-        <v>1.023245157705754</v>
+        <v>1.04789032830757</v>
       </c>
       <c r="L12">
-        <v>0.9505460735083536</v>
+        <v>1.015714741252146</v>
       </c>
       <c r="M12">
-        <v>0.9984073710651976</v>
+        <v>1.047491226242375</v>
       </c>
       <c r="N12">
-        <v>0.9861654071310108</v>
+        <v>1.009461928739331</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9145927096878934</v>
+        <v>1.009598687675607</v>
       </c>
       <c r="D13">
-        <v>1.008629913407332</v>
+        <v>1.044359551030349</v>
       </c>
       <c r="E13">
-        <v>0.9344882688375378</v>
+        <v>1.012083280224056</v>
       </c>
       <c r="F13">
-        <v>0.9834139882043631</v>
+        <v>1.043977871679991</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042879631555655</v>
+        <v>1.037492633725073</v>
       </c>
       <c r="J13">
-        <v>0.9484017246646212</v>
+        <v>1.016423951401251</v>
       </c>
       <c r="K13">
-        <v>1.023550139617715</v>
+        <v>1.047930948637344</v>
       </c>
       <c r="L13">
-        <v>0.9509395478387871</v>
+        <v>1.015777669138151</v>
       </c>
       <c r="M13">
-        <v>0.998820872843898</v>
+        <v>1.047550674540469</v>
       </c>
       <c r="N13">
-        <v>0.9863078926947471</v>
+        <v>1.009484107847394</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9164071739826013</v>
+        <v>1.009878371667949</v>
       </c>
       <c r="D14">
-        <v>1.009786750595373</v>
+        <v>1.044524396896719</v>
       </c>
       <c r="E14">
-        <v>0.9359624197072116</v>
+        <v>1.012322789713077</v>
       </c>
       <c r="F14">
-        <v>0.9849383202722157</v>
+        <v>1.044204625943448</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043391848846188</v>
+        <v>1.037542471671668</v>
       </c>
       <c r="J14">
-        <v>0.949765617986858</v>
+        <v>1.016639820836198</v>
       </c>
       <c r="K14">
-        <v>1.02454316339905</v>
+        <v>1.048063870153726</v>
       </c>
       <c r="L14">
-        <v>0.9522209421006376</v>
+        <v>1.015983767807143</v>
       </c>
       <c r="M14">
-        <v>1.000167329566017</v>
+        <v>1.047745265045301</v>
       </c>
       <c r="N14">
-        <v>0.9867718657814543</v>
+        <v>1.009556738362958</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9175165727529899</v>
+        <v>1.010050617594887</v>
       </c>
       <c r="D15">
-        <v>1.01049441839219</v>
+        <v>1.044625845531142</v>
       </c>
       <c r="E15">
-        <v>0.9368641704377915</v>
+        <v>1.012470303119842</v>
       </c>
       <c r="F15">
-        <v>0.9858706284590721</v>
+        <v>1.04434419912688</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043704714999266</v>
+        <v>1.037573082179268</v>
       </c>
       <c r="J15">
-        <v>0.9505995448076321</v>
+        <v>1.016772744692514</v>
       </c>
       <c r="K15">
-        <v>1.025150258869395</v>
+        <v>1.048145634378839</v>
       </c>
       <c r="L15">
-        <v>0.9530045345541788</v>
+        <v>1.016110683884953</v>
       </c>
       <c r="M15">
-        <v>1.000990574874151</v>
+        <v>1.047865008597108</v>
       </c>
       <c r="N15">
-        <v>0.9870555558377935</v>
+        <v>1.00960145711917</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9238487525852682</v>
+        <v>1.01105200394541</v>
       </c>
       <c r="D16">
-        <v>1.014538166596819</v>
+        <v>1.045214516950465</v>
       </c>
       <c r="E16">
-        <v>0.9420172962620299</v>
+        <v>1.013328043206031</v>
       </c>
       <c r="F16">
-        <v>0.9911958021400745</v>
+        <v>1.045154480560698</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045485371764062</v>
+        <v>1.037749779586757</v>
       </c>
       <c r="J16">
-        <v>0.955359457707024</v>
+        <v>1.017545198718196</v>
       </c>
       <c r="K16">
-        <v>1.028613877375251</v>
+        <v>1.048619508316434</v>
       </c>
       <c r="L16">
-        <v>0.957478746837676</v>
+        <v>1.016848357487196</v>
       </c>
       <c r="M16">
-        <v>1.005688708449236</v>
+        <v>1.048559681771251</v>
       </c>
       <c r="N16">
-        <v>0.9886748213133758</v>
+        <v>1.009861264271573</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9277163556752328</v>
+        <v>1.011679137208786</v>
       </c>
       <c r="D17">
-        <v>1.01701120246309</v>
+        <v>1.045582190321524</v>
       </c>
       <c r="E17">
-        <v>0.9451698604854687</v>
+        <v>1.013865339234986</v>
       </c>
       <c r="F17">
-        <v>0.9944508780418523</v>
+        <v>1.045660910357131</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046568106737458</v>
+        <v>1.037859324850243</v>
       </c>
       <c r="J17">
-        <v>0.9582666139166519</v>
+        <v>1.018028672337141</v>
       </c>
       <c r="K17">
-        <v>1.030727396086065</v>
+        <v>1.048914973153912</v>
       </c>
       <c r="L17">
-        <v>0.9602127792213059</v>
+        <v>1.017310178754816</v>
       </c>
       <c r="M17">
-        <v>1.008556908097975</v>
+        <v>1.048993424373567</v>
       </c>
       <c r="N17">
-        <v>0.9896637832639453</v>
+        <v>1.010023818588139</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9299367442984471</v>
+        <v>1.012044573861001</v>
       </c>
       <c r="D18">
-        <v>1.018431811326246</v>
+        <v>1.045796078355728</v>
       </c>
       <c r="E18">
-        <v>0.9469814830687435</v>
+        <v>1.014178470957222</v>
       </c>
       <c r="F18">
-        <v>0.9963202410580563</v>
+        <v>1.045955642387425</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047187807001279</v>
+        <v>1.037922755568029</v>
       </c>
       <c r="J18">
-        <v>0.9599354965887268</v>
+        <v>1.018310293295524</v>
       </c>
       <c r="K18">
-        <v>1.031939795539734</v>
+        <v>1.049086671295521</v>
       </c>
       <c r="L18">
-        <v>0.961782760455052</v>
+        <v>1.017579229306709</v>
       </c>
       <c r="M18">
-        <v>1.010202795681429</v>
+        <v>1.049245697922484</v>
       </c>
       <c r="N18">
-        <v>0.9902314903055235</v>
+        <v>1.010118485008106</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9306880019953659</v>
+        <v>1.012169117737373</v>
       </c>
       <c r="D19">
-        <v>1.018912583078584</v>
+        <v>1.045868912165209</v>
       </c>
       <c r="E19">
-        <v>0.9475947225329389</v>
+        <v>1.014285196320637</v>
       </c>
       <c r="F19">
-        <v>0.9969528115441216</v>
+        <v>1.046056026704364</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047397144429177</v>
+        <v>1.037944304952437</v>
       </c>
       <c r="J19">
-        <v>0.9605001295660851</v>
+        <v>1.018406254443132</v>
       </c>
       <c r="K19">
-        <v>1.032349818173801</v>
+        <v>1.049145107239059</v>
       </c>
       <c r="L19">
-        <v>0.9623140129433191</v>
+        <v>1.017670914263418</v>
       </c>
       <c r="M19">
-        <v>1.01075952445316</v>
+        <v>1.049331594573954</v>
       </c>
       <c r="N19">
-        <v>0.9904235588459548</v>
+        <v>1.010150738681128</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9273051175758907</v>
+        <v>1.011611889035551</v>
       </c>
       <c r="D20">
-        <v>1.016748153205207</v>
+        <v>1.04554280140004</v>
       </c>
       <c r="E20">
-        <v>0.9448344687326781</v>
+        <v>1.013807719833439</v>
       </c>
       <c r="F20">
-        <v>0.9941046979539262</v>
+        <v>1.045606643548063</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046453174893389</v>
+        <v>1.037847619808685</v>
       </c>
       <c r="J20">
-        <v>0.9579575095019132</v>
+        <v>1.017976839678255</v>
       </c>
       <c r="K20">
-        <v>1.030502763489691</v>
+        <v>1.048883338956492</v>
       </c>
       <c r="L20">
-        <v>0.9599220318615946</v>
+        <v>1.017260663075856</v>
       </c>
       <c r="M20">
-        <v>1.008252007331141</v>
+        <v>1.048946962543339</v>
       </c>
       <c r="N20">
-        <v>0.9895586330427536</v>
+        <v>1.010006393460361</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9158746550870897</v>
+        <v>1.009796027688017</v>
       </c>
       <c r="D21">
-        <v>1.009447159445128</v>
+        <v>1.044475878560149</v>
       </c>
       <c r="E21">
-        <v>0.9355296880487225</v>
+        <v>1.012252271884427</v>
       </c>
       <c r="F21">
-        <v>0.9844908859055219</v>
+        <v>1.044137881145274</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043241585095035</v>
+        <v>1.037527815702626</v>
       </c>
       <c r="J21">
-        <v>0.9493653313424053</v>
+        <v>1.016576269441508</v>
       </c>
       <c r="K21">
-        <v>1.02425173595861</v>
+        <v>1.048024755817462</v>
       </c>
       <c r="L21">
-        <v>0.9518448452753765</v>
+        <v>1.015923091093089</v>
       </c>
       <c r="M21">
-        <v>0.9997721633110327</v>
+        <v>1.047687994270247</v>
       </c>
       <c r="N21">
-        <v>0.9866356945554317</v>
+        <v>1.009535357013486</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9083198781313736</v>
+        <v>1.008650989654894</v>
       </c>
       <c r="D22">
-        <v>1.004636763072843</v>
+        <v>1.043799898340062</v>
       </c>
       <c r="E22">
-        <v>0.9293986559548264</v>
+        <v>1.01127185048166</v>
       </c>
       <c r="F22">
-        <v>0.9781495290556604</v>
+        <v>1.043208410498453</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041104497313567</v>
+        <v>1.037322539081696</v>
       </c>
       <c r="J22">
-        <v>0.9436869996357814</v>
+        <v>1.015692172005721</v>
       </c>
       <c r="K22">
-        <v>1.020116921027361</v>
+        <v>1.04747912211346</v>
       </c>
       <c r="L22">
-        <v>0.9465116690657834</v>
+        <v>1.015079140172597</v>
       </c>
       <c r="M22">
-        <v>0.9941666413953204</v>
+        <v>1.046889883930569</v>
       </c>
       <c r="N22">
-        <v>0.984704088578896</v>
+        <v>1.009237833788866</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9123622701917451</v>
+        <v>1.009258316621644</v>
       </c>
       <c r="D23">
-        <v>1.007208916017256</v>
+        <v>1.044158739257282</v>
       </c>
       <c r="E23">
-        <v>0.9326773513576803</v>
+        <v>1.011791826102602</v>
       </c>
       <c r="F23">
-        <v>0.9815410978343387</v>
+        <v>1.04370171211901</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042249171193458</v>
+        <v>1.037431759119423</v>
       </c>
       <c r="J23">
-        <v>0.9467252138748027</v>
+        <v>1.016161184319306</v>
       </c>
       <c r="K23">
-        <v>1.02232936811842</v>
+        <v>1.047768924880145</v>
       </c>
       <c r="L23">
-        <v>0.9493647435154682</v>
+        <v>1.015526818906237</v>
       </c>
       <c r="M23">
-        <v>0.9971657927802163</v>
+        <v>1.047313600370997</v>
       </c>
       <c r="N23">
-        <v>0.985737581983875</v>
+        <v>1.009395686922693</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.927491047638178</v>
+        <v>1.011642276701405</v>
       </c>
       <c r="D24">
-        <v>1.016867081191352</v>
+        <v>1.04556060131866</v>
       </c>
       <c r="E24">
-        <v>0.9449861015621055</v>
+        <v>1.013833756376501</v>
       </c>
       <c r="F24">
-        <v>0.9942612119358838</v>
+        <v>1.045631166422588</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046505144121481</v>
+        <v>1.03785291025069</v>
       </c>
       <c r="J24">
-        <v>0.9580972629818529</v>
+        <v>1.018000261803083</v>
       </c>
       <c r="K24">
-        <v>1.030604328053641</v>
+        <v>1.048897635071148</v>
       </c>
       <c r="L24">
-        <v>0.9600534841818206</v>
+        <v>1.017283038074752</v>
       </c>
       <c r="M24">
-        <v>1.008389862252058</v>
+        <v>1.048967958873196</v>
       </c>
       <c r="N24">
-        <v>0.9896061740204743</v>
+        <v>1.010014267585239</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9436690440663947</v>
+        <v>1.014394671255187</v>
       </c>
       <c r="D25">
-        <v>1.027224575958898</v>
+        <v>1.047165053521213</v>
       </c>
       <c r="E25">
-        <v>0.9582135665888989</v>
+        <v>1.016192983420399</v>
       </c>
       <c r="F25">
-        <v>1.007885041731042</v>
+        <v>1.047844330720566</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050983208157335</v>
+        <v>1.038323389902831</v>
       </c>
       <c r="J25">
-        <v>0.970253160572622</v>
+        <v>1.020119496828369</v>
       </c>
       <c r="K25">
-        <v>1.039414470187485</v>
+        <v>1.050182288860626</v>
       </c>
       <c r="L25">
-        <v>0.9714971572634407</v>
+        <v>1.019308434350678</v>
       </c>
       <c r="M25">
-        <v>1.020362173436039</v>
+        <v>1.050859483041291</v>
       </c>
       <c r="N25">
-        <v>0.9937407030492369</v>
+        <v>1.010726272032547</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016579125216054</v>
+        <v>0.9556602971824639</v>
       </c>
       <c r="D2">
-        <v>1.048426908005787</v>
+        <v>1.034897381808997</v>
       </c>
       <c r="E2">
-        <v>1.018066743734281</v>
+        <v>0.9680603537946659</v>
       </c>
       <c r="F2">
-        <v>1.049588973064432</v>
+        <v>1.017974092843293</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038683989779495</v>
+        <v>1.054230651851868</v>
       </c>
       <c r="J2">
-        <v>1.021798131300227</v>
+        <v>0.979253211427136</v>
       </c>
       <c r="K2">
-        <v>1.051186784381079</v>
+        <v>1.045891041627284</v>
       </c>
       <c r="L2">
-        <v>1.020914063343212</v>
+        <v>0.9799833521462697</v>
       </c>
       <c r="M2">
-        <v>1.052345611504537</v>
+        <v>1.029188572969558</v>
       </c>
       <c r="N2">
-        <v>1.011289590342848</v>
+        <v>0.9968003153401281</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018159180361971</v>
+        <v>0.9639167535081148</v>
       </c>
       <c r="D3">
-        <v>1.049332845072452</v>
+        <v>1.040166710223808</v>
       </c>
       <c r="E3">
-        <v>1.019422828501661</v>
+        <v>0.9748610825149518</v>
       </c>
       <c r="F3">
-        <v>1.050843941809018</v>
+        <v>1.024905085527372</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038937344410625</v>
+        <v>1.05641963031816</v>
       </c>
       <c r="J3">
-        <v>1.023010383082386</v>
+        <v>0.9854418694151</v>
       </c>
       <c r="K3">
-        <v>1.051904521550316</v>
+        <v>1.050310205193332</v>
       </c>
       <c r="L3">
-        <v>1.022074361519569</v>
+        <v>0.9858260569570132</v>
       </c>
       <c r="M3">
-        <v>1.053411714050287</v>
+        <v>1.035228917534444</v>
       </c>
       <c r="N3">
-        <v>1.011696015993448</v>
+        <v>0.9989028925700405</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019178858726698</v>
+        <v>0.969072633018587</v>
       </c>
       <c r="D4">
-        <v>1.049914311756314</v>
+        <v>1.043447692337585</v>
       </c>
       <c r="E4">
-        <v>1.020298313975961</v>
+        <v>0.9791165105152797</v>
       </c>
       <c r="F4">
-        <v>1.051650574226001</v>
+        <v>1.029223022441528</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039097368684216</v>
+        <v>1.05776320181453</v>
       </c>
       <c r="J4">
-        <v>1.023791800922673</v>
+        <v>0.9893019726260808</v>
       </c>
       <c r="K4">
-        <v>1.052363590475863</v>
+        <v>1.053048564573281</v>
       </c>
       <c r="L4">
-        <v>1.022822646097094</v>
+        <v>0.9894736913911071</v>
       </c>
       <c r="M4">
-        <v>1.054095594038125</v>
+        <v>1.038981094683496</v>
       </c>
       <c r="N4">
-        <v>1.011957819778471</v>
+        <v>1.000213638012597</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019606890452698</v>
+        <v>0.9711983598092685</v>
       </c>
       <c r="D5">
-        <v>1.050157629500328</v>
+        <v>1.044797689863207</v>
       </c>
       <c r="E5">
-        <v>1.020665899277383</v>
+        <v>0.9808729172683149</v>
       </c>
       <c r="F5">
-        <v>1.051988391389344</v>
+        <v>1.031000413517688</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039163706952734</v>
+        <v>1.058311307835639</v>
       </c>
       <c r="J5">
-        <v>1.024119601083609</v>
+        <v>0.9908922852200924</v>
       </c>
       <c r="K5">
-        <v>1.052555303510983</v>
+        <v>1.05417209826836</v>
       </c>
       <c r="L5">
-        <v>1.023136632410743</v>
+        <v>0.9909772532385404</v>
       </c>
       <c r="M5">
-        <v>1.054381675216878</v>
+        <v>1.040522958774388</v>
       </c>
       <c r="N5">
-        <v>1.012067602075899</v>
+        <v>1.00075346099722</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019678721582711</v>
+        <v>0.9715529052805362</v>
       </c>
       <c r="D6">
-        <v>1.050198417383637</v>
+        <v>1.04502268069424</v>
       </c>
       <c r="E6">
-        <v>1.020727591210107</v>
+        <v>0.9811659743934731</v>
       </c>
       <c r="F6">
-        <v>1.052045036824104</v>
+        <v>1.031296681452367</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039174790579778</v>
+        <v>1.058402375424837</v>
       </c>
       <c r="J6">
-        <v>1.024174598889784</v>
+        <v>0.9911574582543715</v>
       </c>
       <c r="K6">
-        <v>1.052587418008582</v>
+        <v>1.054359158038902</v>
       </c>
       <c r="L6">
-        <v>1.023189317561475</v>
+        <v>0.9912280070121074</v>
       </c>
       <c r="M6">
-        <v>1.054429626255681</v>
+        <v>1.040779810966625</v>
       </c>
       <c r="N6">
-        <v>1.012086018663336</v>
+        <v>1.000843461080231</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019184580611537</v>
+        <v>0.9691011977716626</v>
       </c>
       <c r="D7">
-        <v>1.049917567419246</v>
+        <v>1.043465844469438</v>
       </c>
       <c r="E7">
-        <v>1.020303227499515</v>
+        <v>0.9791401050059193</v>
       </c>
       <c r="F7">
-        <v>1.051655093220651</v>
+        <v>1.029246918223834</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039098258775609</v>
+        <v>1.057770590490845</v>
       </c>
       <c r="J7">
-        <v>1.023796183774998</v>
+        <v>0.9893233474570535</v>
       </c>
       <c r="K7">
-        <v>1.052366157178847</v>
+        <v>1.053063684357205</v>
       </c>
       <c r="L7">
-        <v>1.022826843915513</v>
+        <v>0.9894938971442163</v>
       </c>
       <c r="M7">
-        <v>1.054099422249298</v>
+        <v>1.039001834492824</v>
       </c>
       <c r="N7">
-        <v>1.011959287791448</v>
+        <v>1.000220894345658</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017113682618306</v>
+        <v>0.9584910631791294</v>
       </c>
       <c r="D8">
-        <v>1.04873405583952</v>
+        <v>1.036705736488128</v>
       </c>
       <c r="E8">
-        <v>1.018525456312781</v>
+        <v>0.9703901067795483</v>
       </c>
       <c r="F8">
-        <v>1.050014220514243</v>
+        <v>1.020352326089597</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038770422950121</v>
+        <v>1.054985958423893</v>
       </c>
       <c r="J8">
-        <v>1.022208441409066</v>
+        <v>0.9813759160115281</v>
       </c>
       <c r="K8">
-        <v>1.051430457338792</v>
+        <v>1.047410441056505</v>
       </c>
       <c r="L8">
-        <v>1.021306714902362</v>
+        <v>0.9819866842235365</v>
       </c>
       <c r="M8">
-        <v>1.052707142776246</v>
+        <v>1.031263492502771</v>
       </c>
       <c r="N8">
-        <v>1.011427189902839</v>
+        <v>0.997521638286509</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013443150269472</v>
+        <v>0.9382190714533131</v>
       </c>
       <c r="D9">
-        <v>1.046612159031647</v>
+        <v>1.023734336672937</v>
       </c>
       <c r="E9">
-        <v>1.015377171470738</v>
+        <v>0.9537501515155417</v>
       </c>
       <c r="F9">
-        <v>1.047081051185391</v>
+        <v>1.003295329847246</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038162720731101</v>
+        <v>1.049485327819443</v>
       </c>
       <c r="J9">
-        <v>1.019387374429421</v>
+        <v>0.9661593583565257</v>
       </c>
       <c r="K9">
-        <v>1.049740502809432</v>
+        <v>1.036453729521649</v>
       </c>
       <c r="L9">
-        <v>1.018608524540014</v>
+        <v>0.9676409882568032</v>
       </c>
       <c r="M9">
-        <v>1.050207899871445</v>
+        <v>1.016335167922733</v>
       </c>
       <c r="N9">
-        <v>1.010480400711073</v>
+        <v>0.99234848229288</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010981082883099</v>
+        <v>0.923406722272373</v>
       </c>
       <c r="D10">
-        <v>1.045172889142821</v>
+        <v>1.01425565905884</v>
       </c>
       <c r="E10">
-        <v>1.013267287629456</v>
+        <v>0.9416572339220924</v>
       </c>
       <c r="F10">
-        <v>1.045097159644038</v>
+        <v>0.9908238843364965</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037737336935523</v>
+        <v>1.045361375442411</v>
       </c>
       <c r="J10">
-        <v>1.017490509755406</v>
+        <v>0.9550271865272418</v>
       </c>
       <c r="K10">
-        <v>1.048586031051329</v>
+        <v>1.028372206719222</v>
       </c>
       <c r="L10">
-        <v>1.016796123454417</v>
+        <v>0.9571663296942498</v>
       </c>
       <c r="M10">
-        <v>1.048510566938145</v>
+        <v>1.005360816706348</v>
       </c>
       <c r="N10">
-        <v>1.009842873861668</v>
+        <v>0.9885617871175316</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009911255083926</v>
+        <v>0.9166194396375081</v>
       </c>
       <c r="D11">
-        <v>1.04454376874548</v>
+        <v>1.009922131159477</v>
       </c>
       <c r="E11">
-        <v>1.012350950902627</v>
+        <v>0.9361349302569701</v>
       </c>
       <c r="F11">
-        <v>1.044231276273299</v>
+        <v>0.9851166852870462</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037548320392061</v>
+        <v>1.04345172964766</v>
       </c>
       <c r="J11">
-        <v>1.016665198545045</v>
+        <v>0.9499251757189519</v>
       </c>
       <c r="K11">
-        <v>1.048079485444751</v>
+        <v>1.024659325411497</v>
       </c>
       <c r="L11">
-        <v>1.016007998004312</v>
+        <v>0.9523708628343037</v>
       </c>
       <c r="M11">
-        <v>1.047768130962407</v>
+        <v>1.000324845210161</v>
       </c>
       <c r="N11">
-        <v>1.009565276279977</v>
+        <v>0.9868261449316229</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.009513298364739</v>
+        <v>0.9140354740164996</v>
       </c>
       <c r="D12">
-        <v>1.044309193374891</v>
+        <v>1.008274790901502</v>
       </c>
       <c r="E12">
-        <v>1.012010160169225</v>
+        <v>0.9340357200858045</v>
       </c>
       <c r="F12">
-        <v>1.043908612074235</v>
+        <v>0.982945983574531</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037477384932274</v>
+        <v>1.042722203732591</v>
       </c>
       <c r="J12">
-        <v>1.016358036593569</v>
+        <v>0.9479828709852089</v>
       </c>
       <c r="K12">
-        <v>1.04789032830757</v>
+        <v>1.023245157705754</v>
       </c>
       <c r="L12">
-        <v>1.015714741252146</v>
+        <v>0.9505460735083537</v>
       </c>
       <c r="M12">
-        <v>1.047491226242375</v>
+        <v>0.9984073710651982</v>
       </c>
       <c r="N12">
-        <v>1.009461928739331</v>
+        <v>0.9861654071310108</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009598687675607</v>
+        <v>0.9145927096878937</v>
       </c>
       <c r="D13">
-        <v>1.044359551030349</v>
+        <v>1.008629913407333</v>
       </c>
       <c r="E13">
-        <v>1.012083280224056</v>
+        <v>0.9344882688375376</v>
       </c>
       <c r="F13">
-        <v>1.043977871679991</v>
+        <v>0.9834139882043638</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037492633725073</v>
+        <v>1.042879631555655</v>
       </c>
       <c r="J13">
-        <v>1.016423951401251</v>
+        <v>0.9484017246646215</v>
       </c>
       <c r="K13">
-        <v>1.047930948637344</v>
+        <v>1.023550139617716</v>
       </c>
       <c r="L13">
-        <v>1.015777669138151</v>
+        <v>0.9509395478387869</v>
       </c>
       <c r="M13">
-        <v>1.047550674540469</v>
+        <v>0.9988208728438986</v>
       </c>
       <c r="N13">
-        <v>1.009484107847394</v>
+        <v>0.9863078926947471</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009878371667949</v>
+        <v>0.9164071739826025</v>
       </c>
       <c r="D14">
-        <v>1.044524396896719</v>
+        <v>1.009786750595373</v>
       </c>
       <c r="E14">
-        <v>1.012322789713077</v>
+        <v>0.9359624197072128</v>
       </c>
       <c r="F14">
-        <v>1.044204625943448</v>
+        <v>0.9849383202722157</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037542471671668</v>
+        <v>1.043391848846187</v>
       </c>
       <c r="J14">
-        <v>1.016639820836198</v>
+        <v>0.9497656179868588</v>
       </c>
       <c r="K14">
-        <v>1.048063870153726</v>
+        <v>1.02454316339905</v>
       </c>
       <c r="L14">
-        <v>1.015983767807143</v>
+        <v>0.9522209421006388</v>
       </c>
       <c r="M14">
-        <v>1.047745265045301</v>
+        <v>1.000167329566017</v>
       </c>
       <c r="N14">
-        <v>1.009556738362958</v>
+        <v>0.9867718657814546</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010050617594887</v>
+        <v>0.917516572752991</v>
       </c>
       <c r="D15">
-        <v>1.044625845531142</v>
+        <v>1.010494418392191</v>
       </c>
       <c r="E15">
-        <v>1.012470303119842</v>
+        <v>0.9368641704377925</v>
       </c>
       <c r="F15">
-        <v>1.04434419912688</v>
+        <v>0.9858706284590737</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037573082179268</v>
+        <v>1.043704714999266</v>
       </c>
       <c r="J15">
-        <v>1.016772744692514</v>
+        <v>0.9505995448076332</v>
       </c>
       <c r="K15">
-        <v>1.048145634378839</v>
+        <v>1.025150258869395</v>
       </c>
       <c r="L15">
-        <v>1.016110683884953</v>
+        <v>0.9530045345541797</v>
       </c>
       <c r="M15">
-        <v>1.047865008597108</v>
+        <v>1.000990574874153</v>
       </c>
       <c r="N15">
-        <v>1.00960145711917</v>
+        <v>0.9870555558377939</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01105200394541</v>
+        <v>0.923848752585268</v>
       </c>
       <c r="D16">
-        <v>1.045214516950465</v>
+        <v>1.014538166596818</v>
       </c>
       <c r="E16">
-        <v>1.013328043206031</v>
+        <v>0.9420172962620298</v>
       </c>
       <c r="F16">
-        <v>1.045154480560698</v>
+        <v>0.9911958021400742</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037749779586757</v>
+        <v>1.045485371764062</v>
       </c>
       <c r="J16">
-        <v>1.017545198718196</v>
+        <v>0.9553594577070237</v>
       </c>
       <c r="K16">
-        <v>1.048619508316434</v>
+        <v>1.028613877375251</v>
       </c>
       <c r="L16">
-        <v>1.016848357487196</v>
+        <v>0.9574787468376758</v>
       </c>
       <c r="M16">
-        <v>1.048559681771251</v>
+        <v>1.005688708449235</v>
       </c>
       <c r="N16">
-        <v>1.009861264271573</v>
+        <v>0.9886748213133758</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011679137208786</v>
+        <v>0.9277163556752326</v>
       </c>
       <c r="D17">
-        <v>1.045582190321524</v>
+        <v>1.01701120246309</v>
       </c>
       <c r="E17">
-        <v>1.013865339234986</v>
+        <v>0.9451698604854686</v>
       </c>
       <c r="F17">
-        <v>1.045660910357131</v>
+        <v>0.9944508780418522</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037859324850243</v>
+        <v>1.046568106737458</v>
       </c>
       <c r="J17">
-        <v>1.018028672337141</v>
+        <v>0.958266613916652</v>
       </c>
       <c r="K17">
-        <v>1.048914973153912</v>
+        <v>1.030727396086064</v>
       </c>
       <c r="L17">
-        <v>1.017310178754816</v>
+        <v>0.9602127792213059</v>
       </c>
       <c r="M17">
-        <v>1.048993424373567</v>
+        <v>1.008556908097975</v>
       </c>
       <c r="N17">
-        <v>1.010023818588139</v>
+        <v>0.9896637832639453</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012044573861001</v>
+        <v>0.9299367442984471</v>
       </c>
       <c r="D18">
-        <v>1.045796078355728</v>
+        <v>1.018431811326247</v>
       </c>
       <c r="E18">
-        <v>1.014178470957222</v>
+        <v>0.9469814830687433</v>
       </c>
       <c r="F18">
-        <v>1.045955642387425</v>
+        <v>0.9963202410580574</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037922755568029</v>
+        <v>1.04718780700128</v>
       </c>
       <c r="J18">
-        <v>1.018310293295524</v>
+        <v>0.9599354965887268</v>
       </c>
       <c r="K18">
-        <v>1.049086671295521</v>
+        <v>1.031939795539735</v>
       </c>
       <c r="L18">
-        <v>1.017579229306709</v>
+        <v>0.9617827604550516</v>
       </c>
       <c r="M18">
-        <v>1.049245697922484</v>
+        <v>1.01020279568143</v>
       </c>
       <c r="N18">
-        <v>1.010118485008106</v>
+        <v>0.9902314903055235</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012169117737373</v>
+        <v>0.9306880019953651</v>
       </c>
       <c r="D19">
-        <v>1.045868912165209</v>
+        <v>1.018912583078584</v>
       </c>
       <c r="E19">
-        <v>1.014285196320637</v>
+        <v>0.947594722532938</v>
       </c>
       <c r="F19">
-        <v>1.046056026704364</v>
+        <v>0.9969528115441212</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037944304952437</v>
+        <v>1.047397144429176</v>
       </c>
       <c r="J19">
-        <v>1.018406254443132</v>
+        <v>0.9605001295660844</v>
       </c>
       <c r="K19">
-        <v>1.049145107239059</v>
+        <v>1.032349818173801</v>
       </c>
       <c r="L19">
-        <v>1.017670914263418</v>
+        <v>0.9623140129433183</v>
       </c>
       <c r="M19">
-        <v>1.049331594573954</v>
+        <v>1.010759524453159</v>
       </c>
       <c r="N19">
-        <v>1.010150738681128</v>
+        <v>0.9904235588459545</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011611889035551</v>
+        <v>0.9273051175758898</v>
       </c>
       <c r="D20">
-        <v>1.04554280140004</v>
+        <v>1.016748153205207</v>
       </c>
       <c r="E20">
-        <v>1.013807719833439</v>
+        <v>0.9448344687326774</v>
       </c>
       <c r="F20">
-        <v>1.045606643548063</v>
+        <v>0.9941046979539261</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037847619808685</v>
+        <v>1.046453174893389</v>
       </c>
       <c r="J20">
-        <v>1.017976839678255</v>
+        <v>0.9579575095019125</v>
       </c>
       <c r="K20">
-        <v>1.048883338956492</v>
+        <v>1.030502763489691</v>
       </c>
       <c r="L20">
-        <v>1.017260663075856</v>
+        <v>0.9599220318615939</v>
       </c>
       <c r="M20">
-        <v>1.048946962543339</v>
+        <v>1.008252007331141</v>
       </c>
       <c r="N20">
-        <v>1.010006393460361</v>
+        <v>0.9895586330427535</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009796027688017</v>
+        <v>0.9158746550870893</v>
       </c>
       <c r="D21">
-        <v>1.044475878560149</v>
+        <v>1.009447159445128</v>
       </c>
       <c r="E21">
-        <v>1.012252271884427</v>
+        <v>0.9355296880487219</v>
       </c>
       <c r="F21">
-        <v>1.044137881145274</v>
+        <v>0.9844908859055216</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037527815702626</v>
+        <v>1.043241585095036</v>
       </c>
       <c r="J21">
-        <v>1.016576269441508</v>
+        <v>0.9493653313424049</v>
       </c>
       <c r="K21">
-        <v>1.048024755817462</v>
+        <v>1.02425173595861</v>
       </c>
       <c r="L21">
-        <v>1.015923091093089</v>
+        <v>0.9518448452753759</v>
       </c>
       <c r="M21">
-        <v>1.047687994270247</v>
+        <v>0.9997721633110325</v>
       </c>
       <c r="N21">
-        <v>1.009535357013486</v>
+        <v>0.9866356945554314</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008650989654894</v>
+        <v>0.9083198781313724</v>
       </c>
       <c r="D22">
-        <v>1.043799898340062</v>
+        <v>1.004636763072843</v>
       </c>
       <c r="E22">
-        <v>1.01127185048166</v>
+        <v>0.9293986559548251</v>
       </c>
       <c r="F22">
-        <v>1.043208410498453</v>
+        <v>0.9781495290556596</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037322539081696</v>
+        <v>1.041104497313566</v>
       </c>
       <c r="J22">
-        <v>1.015692172005721</v>
+        <v>0.9436869996357801</v>
       </c>
       <c r="K22">
-        <v>1.04747912211346</v>
+        <v>1.02011692102736</v>
       </c>
       <c r="L22">
-        <v>1.015079140172597</v>
+        <v>0.9465116690657821</v>
       </c>
       <c r="M22">
-        <v>1.046889883930569</v>
+        <v>0.9941666413953196</v>
       </c>
       <c r="N22">
-        <v>1.009237833788866</v>
+        <v>0.9847040885788955</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.009258316621644</v>
+        <v>0.9123622701917451</v>
       </c>
       <c r="D23">
-        <v>1.044158739257282</v>
+        <v>1.007208916017255</v>
       </c>
       <c r="E23">
-        <v>1.011791826102602</v>
+        <v>0.9326773513576802</v>
       </c>
       <c r="F23">
-        <v>1.04370171211901</v>
+        <v>0.9815410978343384</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037431759119423</v>
+        <v>1.042249171193458</v>
       </c>
       <c r="J23">
-        <v>1.016161184319306</v>
+        <v>0.9467252138748026</v>
       </c>
       <c r="K23">
-        <v>1.047768924880145</v>
+        <v>1.02232936811842</v>
       </c>
       <c r="L23">
-        <v>1.015526818906237</v>
+        <v>0.9493647435154681</v>
       </c>
       <c r="M23">
-        <v>1.047313600370997</v>
+        <v>0.9971657927802157</v>
       </c>
       <c r="N23">
-        <v>1.009395686922693</v>
+        <v>0.9857375819838752</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011642276701405</v>
+        <v>0.9274910476381782</v>
       </c>
       <c r="D24">
-        <v>1.04556060131866</v>
+        <v>1.016867081191352</v>
       </c>
       <c r="E24">
-        <v>1.013833756376501</v>
+        <v>0.9449861015621057</v>
       </c>
       <c r="F24">
-        <v>1.045631166422588</v>
+        <v>0.9942612119358841</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03785291025069</v>
+        <v>1.046505144121481</v>
       </c>
       <c r="J24">
-        <v>1.018000261803083</v>
+        <v>0.9580972629818532</v>
       </c>
       <c r="K24">
-        <v>1.048897635071148</v>
+        <v>1.030604328053641</v>
       </c>
       <c r="L24">
-        <v>1.017283038074752</v>
+        <v>0.9600534841818208</v>
       </c>
       <c r="M24">
-        <v>1.048967958873196</v>
+        <v>1.008389862252058</v>
       </c>
       <c r="N24">
-        <v>1.010014267585239</v>
+        <v>0.9896061740204743</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014394671255187</v>
+        <v>0.9436690440663948</v>
       </c>
       <c r="D25">
-        <v>1.047165053521213</v>
+        <v>1.027224575958898</v>
       </c>
       <c r="E25">
-        <v>1.016192983420399</v>
+        <v>0.958213566588899</v>
       </c>
       <c r="F25">
-        <v>1.047844330720566</v>
+        <v>1.007885041731042</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038323389902831</v>
+        <v>1.050983208157335</v>
       </c>
       <c r="J25">
-        <v>1.020119496828369</v>
+        <v>0.970253160572622</v>
       </c>
       <c r="K25">
-        <v>1.050182288860626</v>
+        <v>1.039414470187485</v>
       </c>
       <c r="L25">
-        <v>1.019308434350678</v>
+        <v>0.9714971572634405</v>
       </c>
       <c r="M25">
-        <v>1.050859483041291</v>
+        <v>1.020362173436039</v>
       </c>
       <c r="N25">
-        <v>1.010726272032547</v>
+        <v>0.9937407030492369</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C2">
-        <v>0.9556602971824639</v>
+        <v>1.00205749527295</v>
       </c>
       <c r="D2">
-        <v>1.034897381808997</v>
+        <v>1.040021844952244</v>
       </c>
       <c r="E2">
-        <v>0.9680603537946659</v>
+        <v>1.008119577126618</v>
       </c>
       <c r="F2">
-        <v>1.017974092843293</v>
+        <v>1.038268801648035</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054230651851868</v>
+        <v>1.048263276391388</v>
       </c>
       <c r="J2">
-        <v>0.979253211427136</v>
+        <v>1.024176840680473</v>
       </c>
       <c r="K2">
-        <v>1.045891041627284</v>
+        <v>1.050950408561869</v>
       </c>
       <c r="L2">
-        <v>0.9799833521462697</v>
+        <v>1.019466940572617</v>
       </c>
       <c r="M2">
-        <v>1.029188572969558</v>
+        <v>1.049219543941193</v>
       </c>
       <c r="N2">
-        <v>0.9968003153401281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011670353456473</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047526324320596</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.0470965865075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9639167535081148</v>
+        <v>1.006474696420428</v>
       </c>
       <c r="D3">
-        <v>1.040166710223808</v>
+        <v>1.0421677821694</v>
       </c>
       <c r="E3">
-        <v>0.9748610825149518</v>
+        <v>1.011650999453383</v>
       </c>
       <c r="F3">
-        <v>1.024905085527372</v>
+        <v>1.040823884741715</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05641963031816</v>
+        <v>1.049190056320995</v>
       </c>
       <c r="J3">
-        <v>0.9854418694151</v>
+        <v>1.026790397516026</v>
       </c>
       <c r="K3">
-        <v>1.050310205193332</v>
+        <v>1.052288115691215</v>
       </c>
       <c r="L3">
-        <v>0.9858260569570132</v>
+        <v>1.022136942816455</v>
       </c>
       <c r="M3">
-        <v>1.035228917534444</v>
+        <v>1.050959761094633</v>
       </c>
       <c r="N3">
-        <v>0.9989028925700405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012575855618891</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048903574983327</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.048039804293622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.969072633018587</v>
+        <v>1.009277118737157</v>
       </c>
       <c r="D4">
-        <v>1.043447692337585</v>
+        <v>1.043537525718528</v>
       </c>
       <c r="E4">
-        <v>0.9791165105152797</v>
+        <v>1.013897396735174</v>
       </c>
       <c r="F4">
-        <v>1.029223022441528</v>
+        <v>1.042455577072356</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05776320181453</v>
+        <v>1.049771031309007</v>
       </c>
       <c r="J4">
-        <v>0.9893019726260808</v>
+        <v>1.028446455517085</v>
       </c>
       <c r="K4">
-        <v>1.053048564573281</v>
+        <v>1.053137421897347</v>
       </c>
       <c r="L4">
-        <v>0.9894736913911071</v>
+        <v>1.023830936770773</v>
       </c>
       <c r="M4">
-        <v>1.038981094683496</v>
+        <v>1.052067242560422</v>
       </c>
       <c r="N4">
-        <v>1.000213638012597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01314926698221</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049780061728322</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.048641207562503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9711983598092685</v>
+        <v>1.010444500570118</v>
       </c>
       <c r="D5">
-        <v>1.044797689863207</v>
+        <v>1.044114392699403</v>
       </c>
       <c r="E5">
-        <v>0.9808729172683149</v>
+        <v>1.014834863213831</v>
       </c>
       <c r="F5">
-        <v>1.031000413517688</v>
+        <v>1.043139955361354</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058311307835639</v>
+        <v>1.050013302880965</v>
       </c>
       <c r="J5">
-        <v>0.9908922852200924</v>
+        <v>1.029136598950705</v>
       </c>
       <c r="K5">
-        <v>1.05417209826836</v>
+        <v>1.053496024701084</v>
       </c>
       <c r="L5">
-        <v>0.9909772532385404</v>
+        <v>1.024537286290807</v>
       </c>
       <c r="M5">
-        <v>1.040522958774388</v>
+        <v>1.052531908830149</v>
       </c>
       <c r="N5">
-        <v>1.00075346099722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013388548168159</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050147809179405</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.048901849315897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9715529052805362</v>
+        <v>1.010642375374581</v>
       </c>
       <c r="D6">
-        <v>1.04502268069424</v>
+        <v>1.044217592291814</v>
       </c>
       <c r="E6">
-        <v>0.9811659743934731</v>
+        <v>1.014994235979282</v>
       </c>
       <c r="F6">
-        <v>1.031296681452367</v>
+        <v>1.043258765007267</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058402375424837</v>
+        <v>1.050056677188043</v>
       </c>
       <c r="J6">
-        <v>0.9911574582543715</v>
+        <v>1.029254553048722</v>
       </c>
       <c r="K6">
-        <v>1.054359158038902</v>
+        <v>1.053562541247676</v>
       </c>
       <c r="L6">
-        <v>0.9912280070121074</v>
+        <v>1.024657890548273</v>
       </c>
       <c r="M6">
-        <v>1.040779810966625</v>
+        <v>1.052613824166881</v>
       </c>
       <c r="N6">
-        <v>1.000843461080231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013429938162132</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050212638820631</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.048957521847628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9691011977716626</v>
+        <v>1.009299815320895</v>
       </c>
       <c r="D7">
-        <v>1.043465844469438</v>
+        <v>1.043562959222293</v>
       </c>
       <c r="E7">
-        <v>0.9791401050059193</v>
+        <v>1.013916676273343</v>
       </c>
       <c r="F7">
-        <v>1.029246918223834</v>
+        <v>1.042475994280696</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057770590490845</v>
+        <v>1.049782224404006</v>
       </c>
       <c r="J7">
-        <v>0.9893233474570535</v>
+        <v>1.028462581056184</v>
       </c>
       <c r="K7">
-        <v>1.053063684357205</v>
+        <v>1.053159744344311</v>
       </c>
       <c r="L7">
-        <v>0.9894938971442163</v>
+        <v>1.023847045387052</v>
       </c>
       <c r="M7">
-        <v>1.039001834492824</v>
+        <v>1.052084598712193</v>
       </c>
       <c r="N7">
-        <v>1.000220894345658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013156219990542</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049793797784724</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.048676864877726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9584910631791294</v>
+        <v>1.003571076717509</v>
       </c>
       <c r="D8">
-        <v>1.036705736488128</v>
+        <v>1.040773037655438</v>
       </c>
       <c r="E8">
-        <v>0.9703901067795483</v>
+        <v>1.009329771532755</v>
       </c>
       <c r="F8">
-        <v>1.020352326089597</v>
+        <v>1.039150855013684</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054985958423893</v>
+        <v>1.048590334747348</v>
       </c>
       <c r="J8">
-        <v>0.9813759160115281</v>
+        <v>1.025076194349966</v>
       </c>
       <c r="K8">
-        <v>1.047410441056505</v>
+        <v>1.051427645926043</v>
       </c>
       <c r="L8">
-        <v>0.9819866842235365</v>
+        <v>1.020384830956712</v>
       </c>
       <c r="M8">
-        <v>1.031263492502771</v>
+        <v>1.049825384952933</v>
       </c>
       <c r="N8">
-        <v>0.997521638286509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011983804699919</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04800580209073</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.047456666660662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9382190714533131</v>
+        <v>0.9930156272600245</v>
       </c>
       <c r="D9">
-        <v>1.023734336672937</v>
+        <v>1.035679097386971</v>
       </c>
       <c r="E9">
-        <v>0.9537501515155417</v>
+        <v>1.000925776911464</v>
       </c>
       <c r="F9">
-        <v>1.003295329847246</v>
+        <v>1.033101126366487</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049485327819443</v>
+        <v>1.046329957581745</v>
       </c>
       <c r="J9">
-        <v>0.9661593583565257</v>
+        <v>1.018817455621608</v>
       </c>
       <c r="K9">
-        <v>1.036453729521649</v>
+        <v>1.048218663650552</v>
       </c>
       <c r="L9">
-        <v>0.9676409882568032</v>
+        <v>1.01400385186702</v>
       </c>
       <c r="M9">
-        <v>1.016335167922733</v>
+        <v>1.045679055984928</v>
       </c>
       <c r="N9">
-        <v>0.99234848229288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009812077506792</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044724287127204</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.04518461858722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.923406722272373</v>
+        <v>0.9856996509730056</v>
       </c>
       <c r="D10">
-        <v>1.01425565905884</v>
+        <v>1.032254517127938</v>
       </c>
       <c r="E10">
-        <v>0.9416572339220924</v>
+        <v>0.9951450943484026</v>
       </c>
       <c r="F10">
-        <v>0.9908238843364965</v>
+        <v>1.02907024537234</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045361375442411</v>
+        <v>1.044758990847011</v>
       </c>
       <c r="J10">
-        <v>0.9550271865272418</v>
+        <v>1.014492359979374</v>
       </c>
       <c r="K10">
-        <v>1.028372206719222</v>
+        <v>1.046064843826782</v>
       </c>
       <c r="L10">
-        <v>0.9571663296942498</v>
+        <v>1.009602562395507</v>
       </c>
       <c r="M10">
-        <v>1.005360816706348</v>
+        <v>1.042933741852118</v>
       </c>
       <c r="N10">
-        <v>0.9885617871175316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008317796867772</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042602746698262</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043678393516128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9166194396375081</v>
+        <v>0.9828779098725244</v>
       </c>
       <c r="D11">
-        <v>1.009922131159477</v>
+        <v>1.03136002981423</v>
       </c>
       <c r="E11">
-        <v>0.9361349302569701</v>
+        <v>0.9929865461903588</v>
       </c>
       <c r="F11">
-        <v>0.9851166852870462</v>
+        <v>1.028295641634493</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04345172964766</v>
+        <v>1.04436962100736</v>
       </c>
       <c r="J11">
-        <v>0.9499251757189519</v>
+        <v>1.01298075248927</v>
       </c>
       <c r="K11">
-        <v>1.024659325411497</v>
+        <v>1.045713821542806</v>
       </c>
       <c r="L11">
-        <v>0.9523708628343037</v>
+        <v>1.008041949170446</v>
       </c>
       <c r="M11">
-        <v>1.000324845210161</v>
+        <v>1.042702969052117</v>
       </c>
       <c r="N11">
-        <v>0.9868261449316229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007859936777245</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042854132858087</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.043462690362196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9140354740164996</v>
+        <v>0.9819672853351691</v>
       </c>
       <c r="D12">
-        <v>1.008274790901502</v>
+        <v>1.031233176214543</v>
       </c>
       <c r="E12">
-        <v>0.9340357200858045</v>
+        <v>0.9923187725092377</v>
       </c>
       <c r="F12">
-        <v>0.982945983574531</v>
+        <v>1.028354818830798</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042722203732591</v>
+        <v>1.044329199444853</v>
       </c>
       <c r="J12">
-        <v>0.9479828709852089</v>
+        <v>1.01255492692484</v>
       </c>
       <c r="K12">
-        <v>1.023245157705754</v>
+        <v>1.045785501667755</v>
       </c>
       <c r="L12">
-        <v>0.9505460735083537</v>
+        <v>1.007594627280407</v>
       </c>
       <c r="M12">
-        <v>0.9984073710651982</v>
+        <v>1.04295822689831</v>
       </c>
       <c r="N12">
-        <v>0.9861654071310108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007765184263883</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.04338087709514</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.04351336945566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9145927096878937</v>
+        <v>0.9824806725276062</v>
       </c>
       <c r="D13">
-        <v>1.008629913407333</v>
+        <v>1.031713240577263</v>
       </c>
       <c r="E13">
-        <v>0.9344882688375376</v>
+        <v>0.9927633973638655</v>
       </c>
       <c r="F13">
-        <v>0.9834139882043638</v>
+        <v>1.029087343380953</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042879631555655</v>
+        <v>1.044570114581407</v>
       </c>
       <c r="J13">
-        <v>0.9484017246646215</v>
+        <v>1.012950035114801</v>
       </c>
       <c r="K13">
-        <v>1.023550139617716</v>
+        <v>1.046215000080067</v>
       </c>
       <c r="L13">
-        <v>0.9509395478387869</v>
+        <v>1.007986060145486</v>
       </c>
       <c r="M13">
-        <v>0.9988208728438986</v>
+        <v>1.043635478896073</v>
       </c>
       <c r="N13">
-        <v>0.9863078926947471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007949919031264</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.044191834266828</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.043814568584648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9164071739826025</v>
+        <v>0.983484040077829</v>
       </c>
       <c r="D14">
-        <v>1.009786750595373</v>
+        <v>1.032324468391581</v>
       </c>
       <c r="E14">
-        <v>0.9359624197072128</v>
+        <v>0.9935776506639022</v>
       </c>
       <c r="F14">
-        <v>0.9849383202722157</v>
+        <v>1.029903755680131</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043391848846187</v>
+        <v>1.044865449619267</v>
       </c>
       <c r="J14">
-        <v>0.9497656179868588</v>
+        <v>1.013597079404616</v>
       </c>
       <c r="K14">
-        <v>1.02454316339905</v>
+        <v>1.046677700843739</v>
       </c>
       <c r="L14">
-        <v>0.9522209421006388</v>
+        <v>1.00863883734939</v>
       </c>
       <c r="M14">
-        <v>1.000167329566017</v>
+        <v>1.044299196919445</v>
       </c>
       <c r="N14">
-        <v>0.9867718657814546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00820550257657</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.044889134931381</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.044143114042094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.917516572752991</v>
+        <v>0.9840414634501491</v>
       </c>
       <c r="D15">
-        <v>1.010494418392191</v>
+        <v>1.032617512935013</v>
       </c>
       <c r="E15">
-        <v>0.9368641704377925</v>
+        <v>0.9940216266113917</v>
       </c>
       <c r="F15">
-        <v>0.9858706284590737</v>
+        <v>1.030267265010322</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043704714999266</v>
+        <v>1.045004149169968</v>
       </c>
       <c r="J15">
-        <v>0.9505995448076332</v>
+        <v>1.013938333556307</v>
       </c>
       <c r="K15">
-        <v>1.025150258869395</v>
+        <v>1.046880793075714</v>
       </c>
       <c r="L15">
-        <v>0.9530045345541797</v>
+        <v>1.008984613755662</v>
       </c>
       <c r="M15">
-        <v>1.000990574874153</v>
+        <v>1.044571212974124</v>
       </c>
       <c r="N15">
-        <v>0.9870555558377939</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008330713126743</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045141536988335</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04429250538076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.923848752585268</v>
+        <v>0.987044690694144</v>
       </c>
       <c r="D16">
-        <v>1.014538166596818</v>
+        <v>1.033986785826026</v>
       </c>
       <c r="E16">
-        <v>0.9420172962620298</v>
+        <v>0.9963795029036436</v>
       </c>
       <c r="F16">
-        <v>0.9911958021400742</v>
+        <v>1.031870428192604</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045485371764062</v>
+        <v>1.045640196998076</v>
       </c>
       <c r="J16">
-        <v>0.9553594577070237</v>
+        <v>1.015703451146463</v>
       </c>
       <c r="K16">
-        <v>1.028613877375251</v>
+        <v>1.047733406614133</v>
       </c>
       <c r="L16">
-        <v>0.9574787468376758</v>
+        <v>1.010777564711005</v>
       </c>
       <c r="M16">
-        <v>1.005688708449235</v>
+        <v>1.045652085334907</v>
       </c>
       <c r="N16">
-        <v>0.9886748213133758</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008931187380337</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.045957287419977</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.044898451364019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9277163556752326</v>
+        <v>0.9888240607599951</v>
       </c>
       <c r="D17">
-        <v>1.01701120246309</v>
+        <v>1.03471857971032</v>
       </c>
       <c r="E17">
-        <v>0.9451698604854686</v>
+        <v>0.9977645304448599</v>
       </c>
       <c r="F17">
-        <v>0.9944508780418522</v>
+        <v>1.032668656144273</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046568106737458</v>
+        <v>1.045971685255389</v>
       </c>
       <c r="J17">
-        <v>0.958266613916652</v>
+        <v>1.01671859345481</v>
       </c>
       <c r="K17">
-        <v>1.030727396086064</v>
+        <v>1.048144070730975</v>
       </c>
       <c r="L17">
-        <v>0.9602127792213059</v>
+        <v>1.01181186940105</v>
       </c>
       <c r="M17">
-        <v>1.008556908097975</v>
+        <v>1.046127145915908</v>
       </c>
       <c r="N17">
-        <v>0.9896637832639453</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009257800456658</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.046204269598282</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.045191359630266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9299367442984471</v>
+        <v>0.9897138337922931</v>
       </c>
       <c r="D18">
-        <v>1.018431811326247</v>
+        <v>1.034933799350868</v>
       </c>
       <c r="E18">
-        <v>0.9469814830687433</v>
+        <v>0.9984339376712544</v>
       </c>
       <c r="F18">
-        <v>0.9963202410580574</v>
+        <v>1.032791945598271</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04718780700128</v>
+        <v>1.046057198722913</v>
       </c>
       <c r="J18">
-        <v>0.9599354965887268</v>
+        <v>1.017171152539577</v>
       </c>
       <c r="K18">
-        <v>1.031939795539735</v>
+        <v>1.048175595645969</v>
       </c>
       <c r="L18">
-        <v>0.9617827604550516</v>
+        <v>1.012279758256165</v>
       </c>
       <c r="M18">
-        <v>1.01020279568143</v>
+        <v>1.046067675956307</v>
       </c>
       <c r="N18">
-        <v>0.9902314903055235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009373385223195</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045920636840174</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.045202150124838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9306880019953651</v>
+        <v>0.989798294677726</v>
       </c>
       <c r="D19">
-        <v>1.018912583078584</v>
+        <v>1.034698795928823</v>
       </c>
       <c r="E19">
-        <v>0.947594722532938</v>
+        <v>0.9984570293587123</v>
       </c>
       <c r="F19">
-        <v>0.9969528115441212</v>
+        <v>1.032303906247239</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047397144429176</v>
+        <v>1.045927309458058</v>
       </c>
       <c r="J19">
-        <v>0.9605001295660844</v>
+        <v>1.017115411170978</v>
       </c>
       <c r="K19">
-        <v>1.032349818173801</v>
+        <v>1.047882825788322</v>
       </c>
       <c r="L19">
-        <v>0.9623140129433183</v>
+        <v>1.012237762988398</v>
       </c>
       <c r="M19">
-        <v>1.010759524453159</v>
+        <v>1.045525711180251</v>
       </c>
       <c r="N19">
-        <v>0.9904235588459545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009304681676045</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.04516822503574</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.045001478247958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9273051175758898</v>
+        <v>0.987618224449506</v>
       </c>
       <c r="D20">
-        <v>1.016748153205207</v>
+        <v>1.033186673979715</v>
       </c>
       <c r="E20">
-        <v>0.9448344687326774</v>
+        <v>0.9966618219275173</v>
       </c>
       <c r="F20">
-        <v>0.9941046979539261</v>
+        <v>1.03014503360362</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046453174893389</v>
+        <v>1.045190865558337</v>
       </c>
       <c r="J20">
-        <v>0.9579575095019125</v>
+        <v>1.015634930203688</v>
       </c>
       <c r="K20">
-        <v>1.030502763489691</v>
+        <v>1.046670040505066</v>
       </c>
       <c r="L20">
-        <v>0.9599220318615939</v>
+        <v>1.010763624245395</v>
       </c>
       <c r="M20">
-        <v>1.008252007331141</v>
+        <v>1.043677750115885</v>
       </c>
       <c r="N20">
-        <v>0.9895586330427535</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008717039924989</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.043181050994177</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.044147889647455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9158746550870893</v>
+        <v>0.9820274557066263</v>
       </c>
       <c r="D21">
-        <v>1.009447159445128</v>
+        <v>1.030503786017833</v>
       </c>
       <c r="E21">
-        <v>0.9355296880487219</v>
+        <v>0.9922460829368408</v>
       </c>
       <c r="F21">
-        <v>0.9844908859055216</v>
+        <v>1.02693648046342</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043241585095036</v>
+        <v>1.043933735649545</v>
       </c>
       <c r="J21">
-        <v>0.9493653313424049</v>
+        <v>1.012296305959069</v>
       </c>
       <c r="K21">
-        <v>1.02425173595861</v>
+        <v>1.044929417031225</v>
       </c>
       <c r="L21">
-        <v>0.9518448452753759</v>
+        <v>1.007375859904247</v>
       </c>
       <c r="M21">
-        <v>0.9997721633110325</v>
+        <v>1.041424892487152</v>
       </c>
       <c r="N21">
-        <v>0.9866356945554314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007551282227144</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.041357413757823</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042920417659097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9083198781313724</v>
+        <v>0.9784501577244663</v>
       </c>
       <c r="D22">
-        <v>1.004636763072843</v>
+        <v>1.028810635395772</v>
       </c>
       <c r="E22">
-        <v>0.9293986559548251</v>
+        <v>0.9894316767744203</v>
       </c>
       <c r="F22">
-        <v>0.9781495290556596</v>
+        <v>1.024940112913066</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041104497313566</v>
+        <v>1.043130267624375</v>
       </c>
       <c r="J22">
-        <v>0.9436869996357801</v>
+        <v>1.010166224582479</v>
       </c>
       <c r="K22">
-        <v>1.02011692102736</v>
+        <v>1.043832167961173</v>
       </c>
       <c r="L22">
-        <v>0.9465116690657821</v>
+        <v>1.005215442205535</v>
       </c>
       <c r="M22">
-        <v>0.9941666413953196</v>
+        <v>1.040033179641136</v>
       </c>
       <c r="N22">
-        <v>0.9847040885788955</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006809224247625</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040255966819949</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042131268330093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9123622701917451</v>
+        <v>0.9803474005759997</v>
       </c>
       <c r="D23">
-        <v>1.007208916017255</v>
+        <v>1.02969457170239</v>
       </c>
       <c r="E23">
-        <v>0.9326773513576802</v>
+        <v>0.9909222098500177</v>
       </c>
       <c r="F23">
-        <v>0.9815410978343384</v>
+        <v>1.025991058272789</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042249171193458</v>
+        <v>1.043551106730194</v>
       </c>
       <c r="J23">
-        <v>0.9467252138748026</v>
+        <v>1.011293442492796</v>
       </c>
       <c r="K23">
-        <v>1.02232936811842</v>
+        <v>1.044400125295485</v>
       </c>
       <c r="L23">
-        <v>0.9493647435154681</v>
+        <v>1.006358633130554</v>
       </c>
       <c r="M23">
-        <v>0.9971657927802157</v>
+        <v>1.040763321201089</v>
       </c>
       <c r="N23">
-        <v>0.9857375819838752</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007200386745436</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.040833824874131</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042523298801066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9274910476381782</v>
+        <v>0.98765753637676</v>
       </c>
       <c r="D24">
-        <v>1.016867081191352</v>
+        <v>1.033146087598461</v>
       </c>
       <c r="E24">
-        <v>0.9449861015621057</v>
+        <v>0.9966852908141237</v>
       </c>
       <c r="F24">
-        <v>0.9942612119358841</v>
+        <v>1.030081818984494</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046505144121481</v>
+        <v>1.045169063100402</v>
       </c>
       <c r="J24">
-        <v>0.9580972629818532</v>
+        <v>1.015639119453787</v>
       </c>
       <c r="K24">
-        <v>1.030604328053641</v>
+        <v>1.046615093551237</v>
       </c>
       <c r="L24">
-        <v>0.9600534841818208</v>
+        <v>1.010770867590237</v>
       </c>
       <c r="M24">
-        <v>1.008389862252058</v>
+        <v>1.043600484961363</v>
       </c>
       <c r="N24">
-        <v>0.9896061740204743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008710557335989</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043079245241087</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.044081936124756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9436690440663948</v>
+        <v>0.9958125510575746</v>
       </c>
       <c r="D25">
-        <v>1.027224575958898</v>
+        <v>1.037042445958092</v>
       </c>
       <c r="E25">
-        <v>0.958213566588899</v>
+        <v>1.003148444685052</v>
       </c>
       <c r="F25">
-        <v>1.007885041731042</v>
+        <v>1.034704345502089</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050983208157335</v>
+        <v>1.04694507615256</v>
       </c>
       <c r="J25">
-        <v>0.970253160572622</v>
+        <v>1.020481666048168</v>
       </c>
       <c r="K25">
-        <v>1.039414470187485</v>
+        <v>1.049091706404088</v>
       </c>
       <c r="L25">
-        <v>0.9714971572634405</v>
+        <v>1.015698080930376</v>
       </c>
       <c r="M25">
-        <v>1.020362173436039</v>
+        <v>1.04678679123065</v>
       </c>
       <c r="N25">
-        <v>0.9937407030492369</v>
+        <v>1.010392212370068</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045600979679595</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045830162154042</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00205749527295</v>
+        <v>1.002032846390864</v>
       </c>
       <c r="D2">
-        <v>1.040021844952244</v>
+        <v>1.037454764411699</v>
       </c>
       <c r="E2">
-        <v>1.008119577126618</v>
+        <v>1.00811136638849</v>
       </c>
       <c r="F2">
-        <v>1.038268801648035</v>
+        <v>1.036731626895722</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048263276391388</v>
+        <v>1.047443536079271</v>
       </c>
       <c r="J2">
-        <v>1.024176840680473</v>
+        <v>1.024152924911975</v>
       </c>
       <c r="K2">
-        <v>1.050950408561869</v>
+        <v>1.04841583734368</v>
       </c>
       <c r="L2">
-        <v>1.019466940572617</v>
+        <v>1.019458841915972</v>
       </c>
       <c r="M2">
-        <v>1.049219543941193</v>
+        <v>1.04770189388682</v>
       </c>
       <c r="N2">
-        <v>1.011670353456473</v>
+        <v>1.013384043778817</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047526324320596</v>
+        <v>1.046325216641239</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.0470965865075</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045313142777205</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024833977461958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006474696420428</v>
+        <v>1.00631220677213</v>
       </c>
       <c r="D3">
-        <v>1.0421677821694</v>
+        <v>1.039413027155641</v>
       </c>
       <c r="E3">
-        <v>1.011650999453383</v>
+        <v>1.01152128624442</v>
       </c>
       <c r="F3">
-        <v>1.040823884741715</v>
+        <v>1.039154364689233</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049190056320995</v>
+        <v>1.048277291101412</v>
       </c>
       <c r="J3">
-        <v>1.026790397516026</v>
+        <v>1.026632261349651</v>
       </c>
       <c r="K3">
-        <v>1.052288115691215</v>
+        <v>1.049565274225432</v>
       </c>
       <c r="L3">
-        <v>1.022136942816455</v>
+        <v>1.022008842281273</v>
       </c>
       <c r="M3">
-        <v>1.050959761094633</v>
+        <v>1.049309619079368</v>
       </c>
       <c r="N3">
-        <v>1.012575855618891</v>
+        <v>1.014066026295091</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048903574983327</v>
+        <v>1.047597612063493</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048039804293622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046122966412009</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025047250958468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009277118737157</v>
+        <v>1.009028300804652</v>
       </c>
       <c r="D4">
-        <v>1.043537525718528</v>
+        <v>1.040663985674572</v>
       </c>
       <c r="E4">
-        <v>1.013897396735174</v>
+        <v>1.013691501379493</v>
       </c>
       <c r="F4">
-        <v>1.042455577072356</v>
+        <v>1.04070245412533</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049771031309007</v>
+        <v>1.048799428415977</v>
       </c>
       <c r="J4">
-        <v>1.028446455517085</v>
+        <v>1.028203847662448</v>
       </c>
       <c r="K4">
-        <v>1.053137421897347</v>
+        <v>1.050295205951711</v>
       </c>
       <c r="L4">
-        <v>1.023830936770773</v>
+        <v>1.023627443435934</v>
       </c>
       <c r="M4">
-        <v>1.052067242560422</v>
+        <v>1.050333253660156</v>
       </c>
       <c r="N4">
-        <v>1.01314926698221</v>
+        <v>1.014498118620897</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049780061728322</v>
+        <v>1.048407741882968</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.048641207562503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046640049076248</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025180419262349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010444500570118</v>
+        <v>1.010159771996769</v>
       </c>
       <c r="D5">
-        <v>1.044114392699403</v>
+        <v>1.041191224554546</v>
       </c>
       <c r="E5">
-        <v>1.014834863213831</v>
+        <v>1.014597249094694</v>
       </c>
       <c r="F5">
-        <v>1.043139955361354</v>
+        <v>1.041351921577658</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050013302880965</v>
+        <v>1.049017078332072</v>
       </c>
       <c r="J5">
-        <v>1.029136598950705</v>
+        <v>1.028858762039354</v>
       </c>
       <c r="K5">
-        <v>1.053496024701084</v>
+        <v>1.050603890374812</v>
       </c>
       <c r="L5">
-        <v>1.024537286290807</v>
+        <v>1.0243023688505</v>
       </c>
       <c r="M5">
-        <v>1.052531908830149</v>
+        <v>1.050762875817605</v>
       </c>
       <c r="N5">
-        <v>1.013388548168159</v>
+        <v>1.014678430454088</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050147809179405</v>
+        <v>1.048747755260208</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048901849315897</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046866112162867</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025236915027708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010642375374581</v>
+        <v>1.010351326634842</v>
       </c>
       <c r="D6">
-        <v>1.044217592291814</v>
+        <v>1.041285754779128</v>
       </c>
       <c r="E6">
-        <v>1.014994235979282</v>
+        <v>1.014751024142062</v>
       </c>
       <c r="F6">
-        <v>1.043258765007267</v>
+        <v>1.041464613458295</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050056677188043</v>
+        <v>1.049056093124389</v>
       </c>
       <c r="J6">
-        <v>1.029254553048722</v>
+        <v>1.028970512341246</v>
       </c>
       <c r="K6">
-        <v>1.053562541247676</v>
+        <v>1.050661689705227</v>
       </c>
       <c r="L6">
-        <v>1.024657890548273</v>
+        <v>1.024417426018025</v>
       </c>
       <c r="M6">
-        <v>1.052613824166881</v>
+        <v>1.050838651951122</v>
       </c>
       <c r="N6">
-        <v>1.013429938162132</v>
+        <v>1.014709562156829</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050212638820631</v>
+        <v>1.048807726310779</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048957521847628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046916496045109</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025248344478586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009299815320895</v>
+        <v>1.009062421781321</v>
       </c>
       <c r="D7">
-        <v>1.043562959222293</v>
+        <v>1.040691368875857</v>
       </c>
       <c r="E7">
-        <v>1.013916676273343</v>
+        <v>1.0137211922324</v>
       </c>
       <c r="F7">
-        <v>1.042475994280696</v>
+        <v>1.040726249686525</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049782224404006</v>
+        <v>1.048814047089042</v>
       </c>
       <c r="J7">
-        <v>1.028462581056184</v>
+        <v>1.028231109847479</v>
       </c>
       <c r="K7">
-        <v>1.053159744344311</v>
+        <v>1.050319444492233</v>
       </c>
       <c r="L7">
-        <v>1.023847045387052</v>
+        <v>1.023653841006295</v>
       </c>
       <c r="M7">
-        <v>1.052084598712193</v>
+        <v>1.050353943949681</v>
       </c>
       <c r="N7">
-        <v>1.013156219990542</v>
+        <v>1.01453304143469</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049793797784724</v>
+        <v>1.048424116682612</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.048676864877726</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046679073628323</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025187776753081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003571076717509</v>
+        <v>1.003537656842983</v>
       </c>
       <c r="D8">
-        <v>1.040773037655438</v>
+        <v>1.038152033478857</v>
       </c>
       <c r="E8">
-        <v>1.009329771532755</v>
+        <v>1.009315074077822</v>
       </c>
       <c r="F8">
-        <v>1.039150855013684</v>
+        <v>1.037581935585199</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048590334747348</v>
+        <v>1.047751788763317</v>
       </c>
       <c r="J8">
-        <v>1.025076194349966</v>
+        <v>1.025043734534568</v>
       </c>
       <c r="K8">
-        <v>1.051427645926043</v>
+        <v>1.048838868266381</v>
       </c>
       <c r="L8">
-        <v>1.020384830956712</v>
+        <v>1.020370328000398</v>
       </c>
       <c r="M8">
-        <v>1.049825384952933</v>
+        <v>1.048275806836108</v>
       </c>
       <c r="N8">
-        <v>1.011983804699919</v>
+        <v>1.013710933906367</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04800580209073</v>
+        <v>1.046779426488609</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047456666660662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045637177900239</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024917570909494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9930156272600245</v>
+        <v>0.9933259195257829</v>
       </c>
       <c r="D9">
-        <v>1.035679097386971</v>
+        <v>1.03351118966914</v>
       </c>
       <c r="E9">
-        <v>1.000925776911464</v>
+        <v>1.001213742356867</v>
       </c>
       <c r="F9">
-        <v>1.033101126366487</v>
+        <v>1.031853947011563</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046329957581745</v>
+        <v>1.045717816976418</v>
       </c>
       <c r="J9">
-        <v>1.018817455621608</v>
+        <v>1.019116578265591</v>
       </c>
       <c r="K9">
-        <v>1.048218663650552</v>
+        <v>1.046083000765693</v>
       </c>
       <c r="L9">
-        <v>1.01400385186702</v>
+        <v>1.014287158084156</v>
       </c>
       <c r="M9">
-        <v>1.045679055984928</v>
+        <v>1.044450523723239</v>
       </c>
       <c r="N9">
-        <v>1.009812077506792</v>
+        <v>1.012088593223861</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044724287127204</v>
+        <v>1.043751991220874</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04518461858722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043685214324099</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024391120705956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9856996509730056</v>
+        <v>0.9863088916650211</v>
       </c>
       <c r="D10">
-        <v>1.032254517127938</v>
+        <v>1.030411168438654</v>
       </c>
       <c r="E10">
-        <v>0.9951450943484026</v>
+        <v>0.9956972115548999</v>
       </c>
       <c r="F10">
-        <v>1.02907024537234</v>
+        <v>1.028064507082523</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044758990847011</v>
+        <v>1.044320849259089</v>
       </c>
       <c r="J10">
-        <v>1.014492359979374</v>
+        <v>1.015076442495555</v>
       </c>
       <c r="K10">
-        <v>1.046064843826782</v>
+        <v>1.044252223073003</v>
       </c>
       <c r="L10">
-        <v>1.009602562395507</v>
+        <v>1.010144591202825</v>
       </c>
       <c r="M10">
-        <v>1.042933741852118</v>
+        <v>1.041944885256671</v>
       </c>
       <c r="N10">
-        <v>1.008317796867772</v>
+        <v>1.011101603424745</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042602746698262</v>
+        <v>1.04182018320532</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043678393516128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042409075977704</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024041161256848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9828779098725244</v>
+        <v>0.9836547844305782</v>
       </c>
       <c r="D11">
-        <v>1.03136002981423</v>
+        <v>1.029601045845784</v>
       </c>
       <c r="E11">
-        <v>0.9929865461903588</v>
+        <v>0.9936862928411303</v>
       </c>
       <c r="F11">
-        <v>1.028295641634493</v>
+        <v>1.027372659906434</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04436962100736</v>
+        <v>1.043993529082144</v>
       </c>
       <c r="J11">
-        <v>1.01298075248927</v>
+        <v>1.013723715045219</v>
       </c>
       <c r="K11">
-        <v>1.045713821542806</v>
+        <v>1.04398551703403</v>
       </c>
       <c r="L11">
-        <v>1.008041949170446</v>
+        <v>1.008728266807696</v>
       </c>
       <c r="M11">
-        <v>1.042702969052117</v>
+        <v>1.041796193176124</v>
       </c>
       <c r="N11">
-        <v>1.007859936777245</v>
+        <v>1.011010892770938</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042854132858087</v>
+        <v>1.042136884238899</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043462690362196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.04225621232923</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024058798742716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9819672853351691</v>
+        <v>0.9827946772279692</v>
       </c>
       <c r="D12">
-        <v>1.031233176214543</v>
+        <v>1.029475887657932</v>
       </c>
       <c r="E12">
-        <v>0.9923187725092377</v>
+        <v>0.9930613082890053</v>
       </c>
       <c r="F12">
-        <v>1.028354818830798</v>
+        <v>1.027444831581873</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044329199444853</v>
+        <v>1.043961794118264</v>
       </c>
       <c r="J12">
-        <v>1.01255492692484</v>
+        <v>1.013345478234712</v>
       </c>
       <c r="K12">
-        <v>1.045785501667755</v>
+        <v>1.044059355889406</v>
       </c>
       <c r="L12">
-        <v>1.007594627280407</v>
+        <v>1.008322661064086</v>
       </c>
       <c r="M12">
-        <v>1.04295822689831</v>
+        <v>1.042064466635877</v>
       </c>
       <c r="N12">
-        <v>1.007765184263883</v>
+        <v>1.011047748191082</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04338087709514</v>
+        <v>1.042674160860059</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.04351336945566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042308416765995</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024120542127654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9824806725276062</v>
+        <v>0.9832497579569137</v>
       </c>
       <c r="D13">
-        <v>1.031713240577263</v>
+        <v>1.029886730564985</v>
       </c>
       <c r="E13">
-        <v>0.9927633973638655</v>
+        <v>0.993451026430773</v>
       </c>
       <c r="F13">
-        <v>1.029087343380953</v>
+        <v>1.028128580039534</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044570114581407</v>
+        <v>1.044162865343929</v>
       </c>
       <c r="J13">
-        <v>1.012950035114801</v>
+        <v>1.013685050082251</v>
       </c>
       <c r="K13">
-        <v>1.046215000080067</v>
+        <v>1.044420715616114</v>
       </c>
       <c r="L13">
-        <v>1.007986060145486</v>
+        <v>1.008660319543301</v>
       </c>
       <c r="M13">
-        <v>1.043635478896073</v>
+        <v>1.042693724898562</v>
       </c>
       <c r="N13">
-        <v>1.007949919031264</v>
+        <v>1.011149748016217</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044191834266828</v>
+        <v>1.043447353981644</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043814568584648</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042561192559899</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024228235065528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.983484040077829</v>
+        <v>0.9841639986519373</v>
       </c>
       <c r="D14">
-        <v>1.032324468391581</v>
+        <v>1.03041849271357</v>
       </c>
       <c r="E14">
-        <v>0.9935776506639022</v>
+        <v>0.9941837379317227</v>
       </c>
       <c r="F14">
-        <v>1.029903755680131</v>
+        <v>1.028883725164127</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044865449619267</v>
+        <v>1.044409192995072</v>
       </c>
       <c r="J14">
-        <v>1.013597079404616</v>
+        <v>1.014247362051274</v>
       </c>
       <c r="K14">
-        <v>1.046677700843739</v>
+        <v>1.04480493723287</v>
       </c>
       <c r="L14">
-        <v>1.00863883734939</v>
+        <v>1.00923329443853</v>
       </c>
       <c r="M14">
-        <v>1.044299196919445</v>
+        <v>1.043297029245015</v>
       </c>
       <c r="N14">
-        <v>1.00820550257657</v>
+        <v>1.011251982739134</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044889134931381</v>
+        <v>1.044097002386473</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044143114042094</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042834386469248</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024324760809039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9840414634501491</v>
+        <v>0.984676674535873</v>
       </c>
       <c r="D15">
-        <v>1.032617512935013</v>
+        <v>1.030676213423883</v>
       </c>
       <c r="E15">
-        <v>0.9940216266113917</v>
+        <v>0.9945873344145837</v>
       </c>
       <c r="F15">
-        <v>1.030267265010322</v>
+        <v>1.029218666188373</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045004149169968</v>
+        <v>1.04452538889847</v>
       </c>
       <c r="J15">
-        <v>1.013938333556307</v>
+        <v>1.014546072399749</v>
       </c>
       <c r="K15">
-        <v>1.046880793075714</v>
+        <v>1.044973067848096</v>
       </c>
       <c r="L15">
-        <v>1.008984613755662</v>
+        <v>1.00953955289706</v>
       </c>
       <c r="M15">
-        <v>1.044571212974124</v>
+        <v>1.043540836289917</v>
       </c>
       <c r="N15">
-        <v>1.008330713126743</v>
+        <v>1.011295822975038</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045141536988335</v>
+        <v>1.044327128832786</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.04429250538076</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042959631390777</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024362163979849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.987044690694144</v>
+        <v>0.9874741370693787</v>
       </c>
       <c r="D16">
-        <v>1.033986785826026</v>
+        <v>1.031895276995091</v>
       </c>
       <c r="E16">
-        <v>0.9963795029036436</v>
+        <v>0.9967622413767764</v>
       </c>
       <c r="F16">
-        <v>1.031870428192604</v>
+        <v>1.030695597274589</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045640196998076</v>
+        <v>1.045064589649144</v>
       </c>
       <c r="J16">
-        <v>1.015703451146463</v>
+        <v>1.016115284614081</v>
       </c>
       <c r="K16">
-        <v>1.047733406614133</v>
+        <v>1.045676521691276</v>
       </c>
       <c r="L16">
-        <v>1.010777564711005</v>
+        <v>1.011153351216094</v>
       </c>
       <c r="M16">
-        <v>1.045652085334907</v>
+        <v>1.044496783763787</v>
       </c>
       <c r="N16">
-        <v>1.008931187380337</v>
+        <v>1.011506982450073</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045957287419977</v>
+        <v>1.045044112965054</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044898451364019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043460421777312</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024491747210668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9888240607599951</v>
+        <v>0.9891579944507768</v>
       </c>
       <c r="D17">
-        <v>1.03471857971032</v>
+        <v>1.0325574067153</v>
       </c>
       <c r="E17">
-        <v>0.9977645304448599</v>
+        <v>0.9980635412682579</v>
       </c>
       <c r="F17">
-        <v>1.032668656144273</v>
+        <v>1.031434571638375</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045971685255389</v>
+        <v>1.045352391174567</v>
       </c>
       <c r="J17">
-        <v>1.01671859345481</v>
+        <v>1.017039286588978</v>
       </c>
       <c r="K17">
-        <v>1.048144070730975</v>
+        <v>1.046017692141151</v>
       </c>
       <c r="L17">
-        <v>1.01181186940105</v>
+        <v>1.012105609025912</v>
       </c>
       <c r="M17">
-        <v>1.046127145915908</v>
+        <v>1.044913008354582</v>
       </c>
       <c r="N17">
-        <v>1.009257800456658</v>
+        <v>1.011647050471062</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046204269598282</v>
+        <v>1.045244494988636</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.045191359630266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043704447231904</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024540724579898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9897138337922931</v>
+        <v>0.990020570936224</v>
       </c>
       <c r="D18">
-        <v>1.034933799350868</v>
+        <v>1.032763893839297</v>
       </c>
       <c r="E18">
-        <v>0.9984339376712544</v>
+        <v>0.9987107046582524</v>
       </c>
       <c r="F18">
-        <v>1.032791945598271</v>
+        <v>1.031545969329887</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046057198722913</v>
+        <v>1.045431151276939</v>
       </c>
       <c r="J18">
-        <v>1.017171152539577</v>
+        <v>1.017465963627482</v>
       </c>
       <c r="K18">
-        <v>1.048175595645969</v>
+        <v>1.04604006982644</v>
       </c>
       <c r="L18">
-        <v>1.012279758256165</v>
+        <v>1.012551730192208</v>
       </c>
       <c r="M18">
-        <v>1.046067675956307</v>
+        <v>1.044841523165731</v>
       </c>
       <c r="N18">
-        <v>1.009373385223195</v>
+        <v>1.01169376626016</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045920636840174</v>
+        <v>1.044951163769285</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045202150124838</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043707630618213</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024512636111537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.989798294677726</v>
+        <v>0.9901286244047954</v>
       </c>
       <c r="D19">
-        <v>1.034698795928823</v>
+        <v>1.032571569467581</v>
       </c>
       <c r="E19">
-        <v>0.9984570293587123</v>
+        <v>0.9987570055688321</v>
       </c>
       <c r="F19">
-        <v>1.032303906247239</v>
+        <v>1.031084874954925</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045927309458058</v>
+        <v>1.045324085391772</v>
       </c>
       <c r="J19">
-        <v>1.017115411170978</v>
+        <v>1.017432976384248</v>
       </c>
       <c r="K19">
-        <v>1.047882825788322</v>
+        <v>1.045789141358831</v>
       </c>
       <c r="L19">
-        <v>1.012237762988398</v>
+        <v>1.012532570424364</v>
       </c>
       <c r="M19">
-        <v>1.045525711180251</v>
+        <v>1.044325994237049</v>
       </c>
       <c r="N19">
-        <v>1.009304681676045</v>
+        <v>1.011638706858455</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04516822503574</v>
+        <v>1.044219346627618</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.045001478247958</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043537170860875</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024420081258555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.987618224449506</v>
+        <v>0.9881096485171454</v>
       </c>
       <c r="D20">
-        <v>1.033186673979715</v>
+        <v>1.031244485015586</v>
       </c>
       <c r="E20">
-        <v>0.9966618219275173</v>
+        <v>0.9971084714823359</v>
       </c>
       <c r="F20">
-        <v>1.03014503360362</v>
+        <v>1.029060060882341</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045190865558337</v>
+        <v>1.044692066693384</v>
       </c>
       <c r="J20">
-        <v>1.015634930203688</v>
+        <v>1.016106745007282</v>
       </c>
       <c r="K20">
-        <v>1.046670040505066</v>
+        <v>1.044759320006579</v>
       </c>
       <c r="L20">
-        <v>1.010763624245395</v>
+        <v>1.01120235620368</v>
       </c>
       <c r="M20">
-        <v>1.043677750115885</v>
+        <v>1.042610471573147</v>
       </c>
       <c r="N20">
-        <v>1.008717039924989</v>
+        <v>1.01128578787258</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043181050994177</v>
+        <v>1.042336415687129</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044147889647455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042813334455529</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024143628243692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9820274557066263</v>
+        <v>0.9829377924883844</v>
       </c>
       <c r="D21">
-        <v>1.030503786017833</v>
+        <v>1.028878039554263</v>
       </c>
       <c r="E21">
-        <v>0.9922460829368408</v>
+        <v>0.9930700137266855</v>
       </c>
       <c r="F21">
-        <v>1.02693648046342</v>
+        <v>1.026113780553314</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043933735649545</v>
+        <v>1.043640486485341</v>
       </c>
       <c r="J21">
-        <v>1.012296305959069</v>
+        <v>1.013166613697529</v>
       </c>
       <c r="K21">
-        <v>1.044929417031225</v>
+        <v>1.043332212095334</v>
       </c>
       <c r="L21">
-        <v>1.007375859904247</v>
+        <v>1.008183877071401</v>
       </c>
       <c r="M21">
-        <v>1.041424892487152</v>
+        <v>1.040616751628883</v>
       </c>
       <c r="N21">
-        <v>1.007551282227144</v>
+        <v>1.010903321313945</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041357413757823</v>
+        <v>1.040717824929301</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042920417659097</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.04180785102377</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023861046768638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9784501577244663</v>
+        <v>0.979627600461676</v>
       </c>
       <c r="D22">
-        <v>1.028810635395772</v>
+        <v>1.027385778080143</v>
       </c>
       <c r="E22">
-        <v>0.9894316767744203</v>
+        <v>0.9904966466849017</v>
       </c>
       <c r="F22">
-        <v>1.024940112913066</v>
+        <v>1.024284680353935</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043130267624375</v>
+        <v>1.042968102204391</v>
       </c>
       <c r="J22">
-        <v>1.010166224582479</v>
+        <v>1.011288751689828</v>
       </c>
       <c r="K22">
-        <v>1.043832167961173</v>
+        <v>1.042433562847382</v>
       </c>
       <c r="L22">
-        <v>1.005215442205535</v>
+        <v>1.006258747287304</v>
       </c>
       <c r="M22">
-        <v>1.040033179641136</v>
+        <v>1.039389930472366</v>
       </c>
       <c r="N22">
-        <v>1.006809224247625</v>
+        <v>1.010652914235938</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040255966819949</v>
+        <v>1.039746877878989</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042131268330093</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041157809298941</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023682790182747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9803474005759997</v>
+        <v>0.9813620996195482</v>
       </c>
       <c r="D23">
-        <v>1.02969457170239</v>
+        <v>1.028157159867138</v>
       </c>
       <c r="E23">
-        <v>0.9909222098500177</v>
+        <v>0.9918397817130594</v>
       </c>
       <c r="F23">
-        <v>1.025991058272789</v>
+        <v>1.025239092123526</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I23">
-        <v>1.043551106730194</v>
+        <v>1.043311987018676</v>
       </c>
       <c r="J23">
-        <v>1.011293442492796</v>
+        <v>1.012262260258534</v>
       </c>
       <c r="K23">
-        <v>1.044400125295485</v>
+        <v>1.042890330186212</v>
       </c>
       <c r="L23">
-        <v>1.006358633130554</v>
+        <v>1.00725804120468</v>
       </c>
       <c r="M23">
-        <v>1.040763321201089</v>
+        <v>1.040024976364604</v>
       </c>
       <c r="N23">
-        <v>1.007200386745436</v>
+        <v>1.010737298949156</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040833824874131</v>
+        <v>1.04024947447436</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042523298801066</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041470280008162</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023770562246681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.98765753637676</v>
+        <v>0.9881515258701939</v>
       </c>
       <c r="D24">
-        <v>1.033146087598461</v>
+        <v>1.031209606260919</v>
       </c>
       <c r="E24">
-        <v>0.9966852908141237</v>
+        <v>0.9971345334890684</v>
       </c>
       <c r="F24">
-        <v>1.030081818984494</v>
+        <v>1.029000519036154</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045169063100402</v>
+        <v>1.044673531203776</v>
       </c>
       <c r="J24">
-        <v>1.015639119453787</v>
+        <v>1.016113427386075</v>
       </c>
       <c r="K24">
-        <v>1.046615093551237</v>
+        <v>1.04470995106202</v>
       </c>
       <c r="L24">
-        <v>1.010770867590237</v>
+        <v>1.011212157492199</v>
       </c>
       <c r="M24">
-        <v>1.043600484961363</v>
+        <v>1.042536799449356</v>
       </c>
       <c r="N24">
-        <v>1.008710557335989</v>
+        <v>1.011277997897208</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043079245241087</v>
+        <v>1.042237411987122</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044081936124756</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042748639493257</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024124509035198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9958125510575746</v>
+        <v>0.9960134157821443</v>
       </c>
       <c r="D25">
-        <v>1.037042445958092</v>
+        <v>1.034748214643687</v>
       </c>
       <c r="E25">
-        <v>1.003148444685052</v>
+        <v>1.003339537781024</v>
       </c>
       <c r="F25">
-        <v>1.034704345502089</v>
+        <v>1.033364610134776</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04694507615256</v>
+        <v>1.046266174431322</v>
       </c>
       <c r="J25">
-        <v>1.020481666048168</v>
+        <v>1.020675693279737</v>
       </c>
       <c r="K25">
-        <v>1.049091706404088</v>
+        <v>1.046830035979454</v>
       </c>
       <c r="L25">
-        <v>1.015698080930376</v>
+        <v>1.015886231990776</v>
       </c>
       <c r="M25">
-        <v>1.04678679123065</v>
+        <v>1.045466156727773</v>
       </c>
       <c r="N25">
-        <v>1.010392212370068</v>
+        <v>1.012485978605769</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045600979679595</v>
+        <v>1.044555792600173</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045830162154042</v>
+        <v>1.044244486049974</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024538855770482</v>
       </c>
     </row>
   </sheetData>
